--- a/GUI.xlsx
+++ b/GUI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\bolt-hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB4E2526-5C70-445A-AE7D-82A2E9647964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BED968-C327-419E-AF2E-C87334BEFD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{ADC905B0-2814-4D73-BDC4-7F5ECB533AD8}"/>
   </bookViews>
@@ -33,6 +33,257 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>expiration_value</t>
+  </si>
+  <si>
+    <t>yes_bid</t>
+  </si>
+  <si>
+    <t>yes_ask</t>
+  </si>
+  <si>
+    <t>last_price</t>
+  </si>
+  <si>
+    <t>previous_yes_bid</t>
+  </si>
+  <si>
+    <t>previous_yes_ask</t>
+  </si>
+  <si>
+    <t>previous_price</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>open_interest</t>
+  </si>
+  <si>
+    <t>liquidity</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>can_close_early</t>
+  </si>
+  <si>
+    <t>ticker</t>
+  </si>
+  <si>
+    <t>event_ticker</t>
+  </si>
+  <si>
+    <t>subtitle</t>
+  </si>
+  <si>
+    <t>open_time</t>
+  </si>
+  <si>
+    <t>close_time</t>
+  </si>
+  <si>
+    <t>expiration_time</t>
+  </si>
+  <si>
+    <t>no_bid</t>
+  </si>
+  <si>
+    <t>no_ask</t>
+  </si>
+  <si>
+    <t>volume_24h</t>
+  </si>
+  <si>
+    <t>risk_limit_cents</t>
+  </si>
+  <si>
+    <t>strike_type</t>
+  </si>
+  <si>
+    <t>floor_strike</t>
+  </si>
+  <si>
+    <t>cap_strike</t>
+  </si>
+  <si>
+    <t>INXY-23DEC29-T5299.99</t>
+  </si>
+  <si>
+    <t>INXY-23DEC29</t>
+  </si>
+  <si>
+    <t>Will the S&amp;P 500 be above 5299.99 at the end of Dec 29, 2023?</t>
+  </si>
+  <si>
+    <t>5,300 or higher</t>
+  </si>
+  <si>
+    <t>2022-12-13T15:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-12-29T21:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-01-06T00:00:00Z</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Financials</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>INXY-23DEC29-T2700</t>
+  </si>
+  <si>
+    <t>Will the S&amp;P 500 be below 2700 at the end of Dec 29, 2023?</t>
+  </si>
+  <si>
+    <t>2,699.99 or lower</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>INXY-23DEC29-B5200</t>
+  </si>
+  <si>
+    <t>Will the S&amp;P 500 be between 5100 and 5299.99 at the end of Dec 29, 2023?</t>
+  </si>
+  <si>
+    <t>5,100 to 5,299.99</t>
+  </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>INXY-23DEC29-B5000</t>
+  </si>
+  <si>
+    <t>Will the S&amp;P 500 be between 4900 and 5099.99 at the end of Dec 29, 2023?</t>
+  </si>
+  <si>
+    <t>4,900 to 5,099.99</t>
+  </si>
+  <si>
+    <t>INXY-23DEC29-B4800</t>
+  </si>
+  <si>
+    <t>Will the S&amp;P 500 be between 4700 and 4899.99 at the end of Dec 29, 2023?</t>
+  </si>
+  <si>
+    <t>4,700 to 4,899.99</t>
+  </si>
+  <si>
+    <t>INXY-23DEC29-B4600</t>
+  </si>
+  <si>
+    <t>Will the S&amp;P 500 be between 4500 and 4699.99 at the end of Dec 29, 2023?</t>
+  </si>
+  <si>
+    <t>4,500 to 4,699.99</t>
+  </si>
+  <si>
+    <t>INXY-23DEC29-B4400</t>
+  </si>
+  <si>
+    <t>Will the S&amp;P 500 be between 4300 and 4499.99 at the end of Dec 29, 2023?</t>
+  </si>
+  <si>
+    <t>4,300 to 4,499.99</t>
+  </si>
+  <si>
+    <t>INXY-23DEC29-B4200</t>
+  </si>
+  <si>
+    <t>Will the S&amp;P 500 be between 4100 and 4299.99 at the end of Dec 29, 2023?</t>
+  </si>
+  <si>
+    <t>4,100 to 4,299.99</t>
+  </si>
+  <si>
+    <t>INXY-23DEC29-B4000</t>
+  </si>
+  <si>
+    <t>Will the S&amp;P 500 be between 3900 and 4099.99 at the end of Dec 29, 2023?</t>
+  </si>
+  <si>
+    <t>3,900 to 4,099.99</t>
+  </si>
+  <si>
+    <t>INXY-23DEC29-B3800</t>
+  </si>
+  <si>
+    <t>Will the S&amp;P 500 be between 3700 and 3899.99 at the end of Dec 29, 2023?</t>
+  </si>
+  <si>
+    <t>3,700 to 3,899.99</t>
+  </si>
+  <si>
+    <t>INXY-23DEC29-B3600</t>
+  </si>
+  <si>
+    <t>Will the S&amp;P 500 be between 3500 and 3699.99 at the end of Dec 29, 2023?</t>
+  </si>
+  <si>
+    <t>3,500 to 3,699.99</t>
+  </si>
+  <si>
+    <t>INXY-23DEC29-B3400</t>
+  </si>
+  <si>
+    <t>Will the S&amp;P 500 be between 3300 and 3499.99 at the end of Dec 29, 2023?</t>
+  </si>
+  <si>
+    <t>3,300 to 3,499.99</t>
+  </si>
+  <si>
+    <t>INXY-23DEC29-B3200</t>
+  </si>
+  <si>
+    <t>Will the S&amp;P 500 be between 3100 and 3299.99 at the end of Dec 29, 2023?</t>
+  </si>
+  <si>
+    <t>3,100 to 3,299.99</t>
+  </si>
+  <si>
+    <t>INXY-23DEC29-B3000</t>
+  </si>
+  <si>
+    <t>Will the S&amp;P 500 be between 2900 and 3099.99 at the end of Dec 29, 2023?</t>
+  </si>
+  <si>
+    <t>2,900 to 3,099.99</t>
+  </si>
+  <si>
+    <t>INXY-23DEC29-B2800</t>
+  </si>
+  <si>
+    <t>Will the S&amp;P 500 be between 2700 and 2899.99 at the end of Dec 29, 2023?</t>
+  </si>
+  <si>
+    <t>2,700 to 2,899.99</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +633,1344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EE5A62-7A8F-45A8-A4CF-C33D90C58FA8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>96</v>
+      </c>
+      <c r="M2">
+        <v>97</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>419442</v>
+      </c>
+      <c r="S2">
+        <v>26945</v>
+      </c>
+      <c r="T2">
+        <v>28881784</v>
+      </c>
+      <c r="U2">
+        <v>38265</v>
+      </c>
+      <c r="W2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2">
+        <v>5299.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>97</v>
+      </c>
+      <c r="M3">
+        <v>98</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>385491</v>
+      </c>
+      <c r="S3">
+        <v>4765</v>
+      </c>
+      <c r="T3">
+        <v>18624901</v>
+      </c>
+      <c r="U3">
+        <v>49429</v>
+      </c>
+      <c r="W3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>97</v>
+      </c>
+      <c r="M4">
+        <v>98</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>786047</v>
+      </c>
+      <c r="S4">
+        <v>57729</v>
+      </c>
+      <c r="T4">
+        <v>16048772</v>
+      </c>
+      <c r="U4">
+        <v>35997</v>
+      </c>
+      <c r="W4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB4">
+        <v>5100</v>
+      </c>
+      <c r="AC4">
+        <v>5299.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>93</v>
+      </c>
+      <c r="M5">
+        <v>94</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>53109</v>
+      </c>
+      <c r="S5">
+        <v>2869</v>
+      </c>
+      <c r="T5">
+        <v>25472383</v>
+      </c>
+      <c r="U5">
+        <v>19918</v>
+      </c>
+      <c r="W5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB5">
+        <v>4900</v>
+      </c>
+      <c r="AC5">
+        <v>5099.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>90</v>
+      </c>
+      <c r="M6">
+        <v>91</v>
+      </c>
+      <c r="N6">
+        <v>9</v>
+      </c>
+      <c r="O6">
+        <v>9</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>9</v>
+      </c>
+      <c r="R6">
+        <v>35510</v>
+      </c>
+      <c r="S6">
+        <v>2465</v>
+      </c>
+      <c r="T6">
+        <v>29155607</v>
+      </c>
+      <c r="U6">
+        <v>14538</v>
+      </c>
+      <c r="W6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB6">
+        <v>4700</v>
+      </c>
+      <c r="AC6">
+        <v>4899.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>11</v>
+      </c>
+      <c r="L7">
+        <v>89</v>
+      </c>
+      <c r="M7">
+        <v>90</v>
+      </c>
+      <c r="N7">
+        <v>11</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7">
+        <v>11</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <v>33733</v>
+      </c>
+      <c r="S7">
+        <v>2202</v>
+      </c>
+      <c r="T7">
+        <v>38167270</v>
+      </c>
+      <c r="U7">
+        <v>17799</v>
+      </c>
+      <c r="W7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB7">
+        <v>4500</v>
+      </c>
+      <c r="AC7">
+        <v>4699.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>11</v>
+      </c>
+      <c r="L8">
+        <v>89</v>
+      </c>
+      <c r="M8">
+        <v>90</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+      <c r="P8">
+        <v>11</v>
+      </c>
+      <c r="Q8">
+        <v>10</v>
+      </c>
+      <c r="R8">
+        <v>33035</v>
+      </c>
+      <c r="S8">
+        <v>3840</v>
+      </c>
+      <c r="T8">
+        <v>44997267</v>
+      </c>
+      <c r="U8">
+        <v>16220</v>
+      </c>
+      <c r="W8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB8">
+        <v>4300</v>
+      </c>
+      <c r="AC8">
+        <v>4499.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>11</v>
+      </c>
+      <c r="L9">
+        <v>89</v>
+      </c>
+      <c r="M9">
+        <v>90</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>10</v>
+      </c>
+      <c r="P9">
+        <v>11</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+      <c r="R9">
+        <v>34535</v>
+      </c>
+      <c r="S9">
+        <v>3529</v>
+      </c>
+      <c r="T9">
+        <v>46786742</v>
+      </c>
+      <c r="U9">
+        <v>18055</v>
+      </c>
+      <c r="W9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB9">
+        <v>4100</v>
+      </c>
+      <c r="AC9">
+        <v>4299.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>90</v>
+      </c>
+      <c r="M10">
+        <v>91</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+      <c r="R10">
+        <v>31649</v>
+      </c>
+      <c r="S10">
+        <v>753</v>
+      </c>
+      <c r="T10">
+        <v>46081227</v>
+      </c>
+      <c r="U10">
+        <v>12111</v>
+      </c>
+      <c r="W10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB10">
+        <v>3900</v>
+      </c>
+      <c r="AC10">
+        <v>4099.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <v>92</v>
+      </c>
+      <c r="M11">
+        <v>93</v>
+      </c>
+      <c r="N11">
+        <v>8</v>
+      </c>
+      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="P11">
+        <v>9</v>
+      </c>
+      <c r="Q11">
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <v>37210</v>
+      </c>
+      <c r="S11">
+        <v>4363</v>
+      </c>
+      <c r="T11">
+        <v>36412412</v>
+      </c>
+      <c r="U11">
+        <v>13942</v>
+      </c>
+      <c r="W11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB11">
+        <v>3700</v>
+      </c>
+      <c r="AC11">
+        <v>3899.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <v>92</v>
+      </c>
+      <c r="M12">
+        <v>93</v>
+      </c>
+      <c r="N12">
+        <v>8</v>
+      </c>
+      <c r="O12">
+        <v>7</v>
+      </c>
+      <c r="P12">
+        <v>8</v>
+      </c>
+      <c r="Q12">
+        <v>7</v>
+      </c>
+      <c r="R12">
+        <v>34092</v>
+      </c>
+      <c r="S12">
+        <v>4613</v>
+      </c>
+      <c r="T12">
+        <v>33953008</v>
+      </c>
+      <c r="U12">
+        <v>11363</v>
+      </c>
+      <c r="W12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB12">
+        <v>3500</v>
+      </c>
+      <c r="AC12">
+        <v>3699.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>96</v>
+      </c>
+      <c r="M13">
+        <v>97</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>110802</v>
+      </c>
+      <c r="S13">
+        <v>6183</v>
+      </c>
+      <c r="T13">
+        <v>28103188</v>
+      </c>
+      <c r="U13">
+        <v>36618</v>
+      </c>
+      <c r="W13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB13">
+        <v>3300</v>
+      </c>
+      <c r="AC13">
+        <v>3499.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>96</v>
+      </c>
+      <c r="M14">
+        <v>97</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>423434</v>
+      </c>
+      <c r="S14">
+        <v>2233</v>
+      </c>
+      <c r="T14">
+        <v>23595633</v>
+      </c>
+      <c r="U14">
+        <v>39937</v>
+      </c>
+      <c r="W14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB14">
+        <v>3100</v>
+      </c>
+      <c r="AC14">
+        <v>3299.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>97</v>
+      </c>
+      <c r="M15">
+        <v>98</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>850322</v>
+      </c>
+      <c r="S15">
+        <v>45491</v>
+      </c>
+      <c r="T15">
+        <v>19936685</v>
+      </c>
+      <c r="U15">
+        <v>29987</v>
+      </c>
+      <c r="W15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB15">
+        <v>2900</v>
+      </c>
+      <c r="AC15">
+        <v>3099.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>97</v>
+      </c>
+      <c r="M16">
+        <v>98</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>60875</v>
+      </c>
+      <c r="S16">
+        <v>397</v>
+      </c>
+      <c r="T16">
+        <v>11272738</v>
+      </c>
+      <c r="U16">
+        <v>27744</v>
+      </c>
+      <c r="W16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB16">
+        <v>2700</v>
+      </c>
+      <c r="AC16">
+        <v>2899.99</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GUI.xlsx
+++ b/GUI.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\bolt-hub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\bolt-hub\boltmarket-main\Cycles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFB4EDB-24BE-44CB-A90A-E90186EFEC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C170CF-3CA5-4A28-B4F8-4D615B262C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51390" yWindow="10230" windowWidth="16410" windowHeight="15420" xr2:uid="{ADC905B0-2814-4D73-BDC4-7F5ECB533AD8}"/>
+    <workbookView xWindow="51480" yWindow="-2550" windowWidth="16440" windowHeight="28320" xr2:uid="{ADC905B0-2814-4D73-BDC4-7F5ECB533AD8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Eurusd" sheetId="1" r:id="rId1"/>
+    <sheet name="EURUSD" sheetId="3" r:id="rId1"/>
     <sheet name="EURUSD Risks&amp;Marks" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,67 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="135">
-  <si>
-    <t>yes_bid</t>
-  </si>
-  <si>
-    <t>yes_ask</t>
-  </si>
-  <si>
-    <t>last_price</t>
-  </si>
-  <si>
-    <t>expiration_time</t>
-  </si>
-  <si>
-    <t>floor_strike</t>
-  </si>
-  <si>
-    <t>ticker</t>
-  </si>
-  <si>
-    <t>event_ticker</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>open_time</t>
-  </si>
-  <si>
-    <t>close_time</t>
-  </si>
-  <si>
-    <t>open_interest</t>
-  </si>
-  <si>
-    <t>strike_type</t>
-  </si>
-  <si>
-    <t>cap_strike</t>
-  </si>
-  <si>
-    <t>greater</t>
-  </si>
-  <si>
-    <t>between</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>custom_strike</t>
-  </si>
-  <si>
-    <t>one_touch</t>
-  </si>
-  <si>
-    <t>strike</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>Delta</t>
   </si>
@@ -273,175 +213,10 @@
     <t>Forward Curve</t>
   </si>
   <si>
-    <t>EURUSD-23JUN2210-T1.10399</t>
-  </si>
-  <si>
-    <t>EURUSD-23JUN2210</t>
-  </si>
-  <si>
-    <t>Will the EUR/USD open price be above 1.10399 at Jun 22, 2023 at 10am EDT?</t>
-  </si>
-  <si>
-    <t>2023-06-21T22:00:00Z</t>
-  </si>
-  <si>
-    <t>2023-06-22T14:00:00Z</t>
-  </si>
-  <si>
-    <t>2023-06-29T14:00:00Z</t>
-  </si>
-  <si>
-    <t>EURUSD-23JUN2210-B1.103</t>
-  </si>
-  <si>
-    <t>Will the EUR/USD open price be between 1.10200 and 1.10399 at Jun 22, 2023 at 10am EDT?</t>
-  </si>
-  <si>
-    <t>EURUSD-23JUN2210-B1.101</t>
-  </si>
-  <si>
-    <t>Will the EUR/USD open price be between 1.10000 and 1.10199 at Jun 22, 2023 at 10am EDT?</t>
-  </si>
-  <si>
-    <t>EURUSD-23JUN2210-B1.099</t>
-  </si>
-  <si>
-    <t>Will the EUR/USD open price be between 1.09800 and 1.09999 at Jun 22, 2023 at 10am EDT?</t>
-  </si>
-  <si>
-    <t>EURUSD-23JUN2210-B1.097</t>
-  </si>
-  <si>
-    <t>Will the EUR/USD open price be between 1.09600 and 1.09799 at Jun 22, 2023 at 10am EDT?</t>
-  </si>
-  <si>
-    <t>EURUSD-23JUN2210-B1.095</t>
-  </si>
-  <si>
-    <t>Will the EUR/USD open price be between 1.09400 and 1.09599 at Jun 22, 2023 at 10am EDT?</t>
-  </si>
-  <si>
-    <t>EURUSD-23JUN2210-T1.09400</t>
-  </si>
-  <si>
-    <t>Will the EUR/USD open price be below 1.09400 at Jun 22, 2023 at 10am EDT?</t>
-  </si>
-  <si>
-    <t>EURUSDH-23JUN2215-T1.10540</t>
-  </si>
-  <si>
-    <t>EURUSDH-23JUN2215</t>
-  </si>
-  <si>
-    <t>Will the EUR/USD open price be above 1.10540 at Jun 22, 2023 at 3pm EDT?</t>
-  </si>
-  <si>
-    <t>2023-06-21T20:00:00Z</t>
-  </si>
-  <si>
-    <t>2023-06-22T19:00:00Z</t>
-  </si>
-  <si>
-    <t>2023-06-29T19:00:00Z</t>
-  </si>
-  <si>
-    <t>EURUSDH-23JUN2215-T1.10420</t>
-  </si>
-  <si>
-    <t>Will the EUR/USD open price be above 1.10420 at Jun 22, 2023 at 3pm EDT?</t>
-  </si>
-  <si>
-    <t>EURUSDH-23JUN2215-T1.10300</t>
-  </si>
-  <si>
-    <t>Will the EUR/USD open price be above 1.10300 at Jun 22, 2023 at 3pm EDT?</t>
-  </si>
-  <si>
-    <t>EURUSDH-23JUN2215-T1.10180</t>
-  </si>
-  <si>
-    <t>Will the EUR/USD open price be above 1.10180 at Jun 22, 2023 at 3pm EDT?</t>
-  </si>
-  <si>
-    <t>EURUSDH-23JUN2215-T1.10060</t>
-  </si>
-  <si>
-    <t>Will the EUR/USD open price be above 1.10060 at Jun 22, 2023 at 3pm EDT?</t>
-  </si>
-  <si>
-    <t>EURUSDH-23JUN2215-T1.09940</t>
-  </si>
-  <si>
-    <t>Will the EUR/USD open price be above 1.09940 at Jun 22, 2023 at 3pm EDT?</t>
-  </si>
-  <si>
-    <t>EURUSDH-23JUN2215-T1.09820</t>
-  </si>
-  <si>
-    <t>Will the EUR/USD open price be above 1.09820 at Jun 22, 2023 at 3pm EDT?</t>
-  </si>
-  <si>
-    <t>EURUSDH-23JUN2215-T1.09700</t>
-  </si>
-  <si>
-    <t>Will the EUR/USD open price be above 1.09700 at Jun 22, 2023 at 3pm EDT?</t>
-  </si>
-  <si>
-    <t>EURUSDH-23JUN2215-T1.09580</t>
-  </si>
-  <si>
-    <t>Will the EUR/USD open price be above 1.09580 at Jun 22, 2023 at 3pm EDT?</t>
-  </si>
-  <si>
-    <t>EURUSDH-23JUN2215-T1.09460</t>
-  </si>
-  <si>
-    <t>Will the EUR/USD open price be above 1.09460 at Jun 22, 2023 at 3pm EDT?</t>
-  </si>
-  <si>
-    <t>EURUSDH-23JUN2215-T1.09340</t>
-  </si>
-  <si>
-    <t>Will the EUR/USD open price be above 1.09340 at Jun 22, 2023 at 3pm EDT?</t>
-  </si>
-  <si>
-    <t>EURUSDH-23JUN2215-T1.09220</t>
-  </si>
-  <si>
-    <t>Will the EUR/USD open price be above 1.09220 at Jun 22, 2023 at 3pm EDT?</t>
-  </si>
-  <si>
-    <t>EURUSDH-23JUN2215-T1.09100</t>
-  </si>
-  <si>
-    <t>Will the EUR/USD open price be above 1.09100 at Jun 22, 2023 at 3pm EDT?</t>
-  </si>
-  <si>
-    <t>EURUSDH-23JUN2215-T1.08980</t>
-  </si>
-  <si>
-    <t>Will the EUR/USD open price be above 1.08980 at Jun 22, 2023 at 3pm EDT?</t>
-  </si>
-  <si>
-    <t>EURUSDH-23JUN2215-T1.08860</t>
-  </si>
-  <si>
-    <t>Will the EUR/USD open price be above 1.08860 at Jun 22, 2023 at 3pm EDT?</t>
-  </si>
-  <si>
     <t>Points</t>
   </si>
   <si>
     <t>NaN</t>
-  </si>
-  <si>
-    <t>alpha_long</t>
-  </si>
-  <si>
-    <t>alpha_short</t>
-  </si>
-  <si>
-    <t>underlying_px</t>
   </si>
 </sst>
 </file>
@@ -1177,1202 +952,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EE5A62-7A8F-45A8-A4CF-C33D90C58FA8}">
-  <dimension ref="A1:U23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8466C5D6-701B-46E3-B7B2-260B1B763E8F}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:U23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="79" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" t="s">
-        <v>132</v>
-      </c>
-      <c r="T1" t="s">
-        <v>133</v>
-      </c>
-      <c r="U1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>13</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2">
-        <v>1.10399</v>
-      </c>
-      <c r="P2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>1.10399</v>
-      </c>
-      <c r="R2">
-        <v>3.6884066026928064</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3">
-        <v>9</v>
-      </c>
-      <c r="J3">
-        <v>15</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3">
-        <v>1.1020000000000001</v>
-      </c>
-      <c r="N3">
-        <v>1.10399</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1.1020000000000001</v>
-      </c>
-      <c r="R3">
-        <v>1.2601770642137133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4">
-        <v>14</v>
-      </c>
-      <c r="J4">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N4">
-        <v>1.10199</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R4">
-        <v>1.5870495378803993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5">
-        <v>15</v>
-      </c>
-      <c r="J5">
-        <v>23</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5">
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="N5">
-        <v>1.09999</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="R5">
-        <v>1.9611933300716173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6">
-        <v>14</v>
-      </c>
-      <c r="J6">
-        <v>21</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6">
-        <v>1.0960000000000001</v>
-      </c>
-      <c r="N6">
-        <v>1.09799</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>1.0960000000000001</v>
-      </c>
-      <c r="R6">
-        <v>2.3778197995293402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7">
-        <v>9</v>
-      </c>
-      <c r="J7">
-        <v>15</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7">
-        <v>1.0940000000000001</v>
-      </c>
-      <c r="N7">
-        <v>1.09599</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>1.0940000000000001</v>
-      </c>
-      <c r="R7">
-        <v>2.828286334109559</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8">
-        <v>8</v>
-      </c>
-      <c r="J8">
-        <v>14</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8">
-        <v>1.0940000000000001</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>1.0940000000000001</v>
-      </c>
-      <c r="R8">
-        <v>86.25715093136894</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>7</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9">
-        <v>1.1053999999999999</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>1.1053999999999999</v>
-      </c>
-      <c r="R9">
-        <v>3.183282028418144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>59</v>
-      </c>
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <v>10</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10">
-        <v>1.1042000000000001</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>1.1042000000000001</v>
-      </c>
-      <c r="R10">
-        <v>3.8154480188784645</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>60</v>
-      </c>
-      <c r="B11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11">
-        <v>11</v>
-      </c>
-      <c r="J11">
-        <v>16</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11">
-        <v>1.103</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>1.103</v>
-      </c>
-      <c r="R11">
-        <v>4.5472497454941969</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" t="s">
-        <v>101</v>
-      </c>
-      <c r="I12">
-        <v>19</v>
-      </c>
-      <c r="J12">
-        <v>24</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12">
-        <v>1.1017999999999999</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>1.1017999999999999</v>
-      </c>
-      <c r="R12">
-        <v>5.3888285762360377</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>62</v>
-      </c>
-      <c r="B13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13">
-        <v>28</v>
-      </c>
-      <c r="J13">
-        <v>34</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13">
-        <v>1.1006</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>1.1006</v>
-      </c>
-      <c r="R13">
-        <v>6.3502779159516081</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14">
-        <v>41</v>
-      </c>
-      <c r="J14">
-        <v>46</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14">
-        <v>1.0993999999999999</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>1.0993999999999999</v>
-      </c>
-      <c r="R14">
-        <v>7.4414150992366812</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>64</v>
-      </c>
-      <c r="B15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15">
-        <v>54</v>
-      </c>
-      <c r="J15">
-        <v>59</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15">
-        <v>1.0982000000000001</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>1.0982000000000001</v>
-      </c>
-      <c r="R15">
-        <v>8.671527420345182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" t="s">
-        <v>101</v>
-      </c>
-      <c r="I16">
-        <v>66</v>
-      </c>
-      <c r="J16">
-        <v>72</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16">
-        <v>1.097</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>1.097</v>
-      </c>
-      <c r="R16">
-        <v>10.049097385191619</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>66</v>
-      </c>
-      <c r="B17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17">
-        <v>76</v>
-      </c>
-      <c r="J17">
-        <v>81</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" t="s">
-        <v>13</v>
-      </c>
-      <c r="M17">
-        <v>1.0958000000000001</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>1.0958000000000001</v>
-      </c>
-      <c r="R17">
-        <v>11.581514786226666</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>67</v>
-      </c>
-      <c r="B18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18">
-        <v>84</v>
-      </c>
-      <c r="J18">
-        <v>89</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18">
-        <v>1.0946</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>1.0946</v>
-      </c>
-      <c r="R18">
-        <v>13.274783930560774</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>68</v>
-      </c>
-      <c r="B19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" t="s">
-        <v>101</v>
-      </c>
-      <c r="I19">
-        <v>90</v>
-      </c>
-      <c r="J19">
-        <v>95</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19">
-        <v>1.0933999999999999</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>1.0933999999999999</v>
-      </c>
-      <c r="R19">
-        <v>15.133235940999356</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>69</v>
-      </c>
-      <c r="B20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20">
-        <v>93</v>
-      </c>
-      <c r="J20">
-        <v>99</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
-        <v>13</v>
-      </c>
-      <c r="M20">
-        <v>1.0922000000000001</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>1.0922000000000001</v>
-      </c>
-      <c r="R20">
-        <v>17.159257489333022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>70</v>
-      </c>
-      <c r="B21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" t="s">
-        <v>100</v>
-      </c>
-      <c r="H21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21">
-        <v>1.091</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>1.091</v>
-      </c>
-      <c r="R21">
-        <v>19.353047169944638</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>71</v>
-      </c>
-      <c r="B22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" t="s">
-        <v>101</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
-        <v>13</v>
-      </c>
-      <c r="M22">
-        <v>1.0898000000000001</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>1.0898000000000001</v>
-      </c>
-      <c r="R22">
-        <v>21.712411379622012</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>72</v>
-      </c>
-      <c r="B23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23">
-        <v>1.0886</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>1.0886</v>
-      </c>
-      <c r="R23">
-        <v>24.23261041543001</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2404,47 +991,47 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5">
-        <f>SUMPRODUCT(Eurusd!F2:F29,Eurusd!T2:T29)/100</f>
         <v>0</v>
+      </c>
+      <c r="L5" t="e">
+        <f>SUMPRODUCT(#REF!,#REF!)/100</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B8" s="14">
         <v>1.09924</v>
@@ -2461,7 +1048,7 @@
     </row>
     <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B9" s="14">
         <v>1.09935</v>
@@ -2478,7 +1065,7 @@
     </row>
     <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B10" s="14">
         <v>1.09924</v>
@@ -2495,7 +1082,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B11" s="14">
         <v>1.0996300000000001</v>
@@ -2512,7 +1099,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B12" s="14">
         <v>1.1000000000000001</v>
@@ -2529,7 +1116,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B13" s="14">
         <v>1.1003799999999999</v>
@@ -2546,7 +1133,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B14" s="14">
         <v>1.1008800000000001</v>
@@ -2563,7 +1150,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B15" s="14">
         <v>1.10277</v>
@@ -2580,7 +1167,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B16" s="14">
         <v>1.10436</v>
@@ -2597,7 +1184,7 @@
     </row>
     <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B17" s="14">
         <v>1.10602</v>
@@ -2614,7 +1201,7 @@
     </row>
     <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B18" s="14">
         <v>1.10768</v>
@@ -2631,7 +1218,7 @@
     </row>
     <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B19" s="14">
         <v>1.10914</v>
@@ -2648,7 +1235,7 @@
     </row>
     <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B20" s="14">
         <v>1.1115900000000001</v>
@@ -2665,7 +1252,7 @@
     </row>
     <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B21" s="14">
         <v>1.11297</v>
@@ -2682,7 +1269,7 @@
     </row>
     <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B22" s="14">
         <v>1.11419</v>
@@ -2699,7 +1286,7 @@
     </row>
     <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B23" s="14">
         <v>1.11571</v>
@@ -2716,7 +1303,7 @@
     </row>
     <row r="24" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B24" s="14">
         <v>1.1169800000000001</v>
@@ -2733,7 +1320,7 @@
     </row>
     <row r="25" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B25" s="14">
         <v>1.11805</v>
@@ -2750,7 +1337,7 @@
     </row>
     <row r="26" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B26" s="14">
         <v>1.12866</v>
@@ -2767,7 +1354,7 @@
     </row>
     <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B27" s="14">
         <v>1.1351100000000001</v>
@@ -2784,7 +1371,7 @@
     </row>
     <row r="28" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B28" s="14">
         <v>1.14544</v>
@@ -2801,7 +1388,7 @@
     </row>
     <row r="29" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B29" s="14">
         <v>1.1583600000000001</v>
@@ -2818,7 +1405,7 @@
     </row>
     <row r="30" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B30" s="14">
         <v>1.1682900000000001</v>
@@ -2835,7 +1422,7 @@
     </row>
     <row r="31" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B31" s="14">
         <v>1.17879</v>
@@ -2852,7 +1439,7 @@
     </row>
     <row r="32" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B32" s="14">
         <v>1.20899</v>
@@ -2869,7 +1456,7 @@
     </row>
     <row r="33" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -2896,10 +1483,10 @@
     </row>
     <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
@@ -2910,7 +1497,7 @@
       <c r="I34" s="24"/>
       <c r="J34" s="4"/>
       <c r="K34" s="25" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="L34" s="26"/>
       <c r="M34" s="26"/>
@@ -2920,87 +1507,87 @@
       <c r="Q34" s="26"/>
       <c r="R34" s="27"/>
       <c r="S34" s="28" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="T34" s="30" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="U34" s="31"/>
       <c r="V34" s="32" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="W34" s="33"/>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
       <c r="B35" s="5" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="S35" s="29"/>
       <c r="T35" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="V35" s="8" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="W35" s="8" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B36" s="10">
         <v>7.08</v>
@@ -3054,7 +1641,7 @@
         <v>6.87</v>
       </c>
       <c r="S36" s="12" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="T36" s="13">
         <v>-0.08</v>
@@ -3071,7 +1658,7 @@
     </row>
     <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B37" s="10">
         <v>6.21</v>
@@ -3125,7 +1712,7 @@
         <v>5.92</v>
       </c>
       <c r="S37" s="12" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="T37" s="13">
         <v>-0.12</v>
@@ -3142,7 +1729,7 @@
     </row>
     <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B38" s="10">
         <v>6.18</v>
@@ -3196,7 +1783,7 @@
         <v>5.94</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="T38" s="13">
         <v>-0.1</v>
@@ -3213,7 +1800,7 @@
     </row>
     <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B39" s="10">
         <v>6.82</v>
@@ -3267,7 +1854,7 @@
         <v>6.19</v>
       </c>
       <c r="S39" s="12" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="T39" s="13">
         <v>-0.24</v>
@@ -3284,7 +1871,7 @@
     </row>
     <row r="40" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B40" s="10">
         <v>6.99</v>
@@ -3338,7 +1925,7 @@
         <v>6.27</v>
       </c>
       <c r="S40" s="12" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="T40" s="13">
         <v>-0.28000000000000003</v>
@@ -3355,7 +1942,7 @@
     </row>
     <row r="41" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B41" s="10">
         <v>7.5</v>
@@ -3409,7 +1996,7 @@
         <v>6.36</v>
       </c>
       <c r="S41" s="12" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="T41" s="13">
         <v>-0.42</v>
@@ -3426,7 +2013,7 @@
     </row>
     <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B42" s="10">
         <v>7.99</v>
@@ -3480,7 +2067,7 @@
         <v>6.35</v>
       </c>
       <c r="S42" s="12" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="T42" s="13">
         <v>-0.57999999999999996</v>
@@ -3497,7 +2084,7 @@
     </row>
     <row r="43" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B43" s="10">
         <v>8.9700000000000006</v>
@@ -3551,7 +2138,7 @@
         <v>6.62</v>
       </c>
       <c r="S43" s="12" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="T43" s="13">
         <v>-0.72</v>
@@ -3568,7 +2155,7 @@
     </row>
     <row r="44" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B44" s="10">
         <v>10.38</v>
@@ -3622,7 +2209,7 @@
         <v>6.72</v>
       </c>
       <c r="S44" s="12" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="T44" s="13">
         <v>-0.89</v>
@@ -3639,10 +2226,10 @@
     </row>
     <row r="45" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="C45" s="10">
         <v>9.06</v>
@@ -3693,7 +2280,7 @@
         <v>6.86</v>
       </c>
       <c r="S45" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="T45" s="13">
         <v>-1.03</v>

--- a/GUI.xlsx
+++ b/GUI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\bolt-hub\boltmarket-main\Cycles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\bolt-hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C170CF-3CA5-4A28-B4F8-4D615B262C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2756BDF7-7241-4CB6-9386-BF03E93CA038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-2550" windowWidth="16440" windowHeight="28320" xr2:uid="{ADC905B0-2814-4D73-BDC4-7F5ECB533AD8}"/>
+    <workbookView xWindow="51390" yWindow="10230" windowWidth="16410" windowHeight="15420" activeTab="1" xr2:uid="{ADC905B0-2814-4D73-BDC4-7F5ECB533AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="EURUSD" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="114">
   <si>
     <t>Delta</t>
   </si>
@@ -216,14 +216,176 @@
     <t>Points</t>
   </si>
   <si>
-    <t>NaN</t>
+    <t>EURUSD</t>
+  </si>
+  <si>
+    <t>USDJPY</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>open_interest</t>
+  </si>
+  <si>
+    <t>yes_bid</t>
+  </si>
+  <si>
+    <t>yes_ask</t>
+  </si>
+  <si>
+    <t>last_price</t>
+  </si>
+  <si>
+    <t>expiration_time</t>
+  </si>
+  <si>
+    <t>floor_strike</t>
+  </si>
+  <si>
+    <t>cap_strike</t>
+  </si>
+  <si>
+    <t>mrp</t>
+  </si>
+  <si>
+    <t>pricing_vol</t>
+  </si>
+  <si>
+    <t>alpha_long</t>
+  </si>
+  <si>
+    <t>alpha_short</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>Will the EUR/USD open price be above 1.10340 at Jul 28, 2023 at 3pm EDT?</t>
+  </si>
+  <si>
+    <t>2023-07-28T19:00:00Z</t>
+  </si>
+  <si>
+    <t>Will the EUR/USD open price be above 1.10220 at Jul 28, 2023 at 3pm EDT?</t>
+  </si>
+  <si>
+    <t>Will the EUR/USD open price be above 1.10100 at Jul 28, 2023 at 3pm EDT?</t>
+  </si>
+  <si>
+    <t>Will the EUR/USD open price be above 1.09980 at Jul 28, 2023 at 3pm EDT?</t>
+  </si>
+  <si>
+    <t>Will the EUR/USD open price be above 1.09860 at Jul 28, 2023 at 3pm EDT?</t>
+  </si>
+  <si>
+    <t>Will the EUR/USD open price be above 1.09740 at Jul 28, 2023 at 3pm EDT?</t>
+  </si>
+  <si>
+    <t>Will the EUR/USD open price be above 1.09620 at Jul 28, 2023 at 3pm EDT?</t>
+  </si>
+  <si>
+    <t>Will the EUR/USD open price be above 1.09500 at Jul 28, 2023 at 3pm EDT?</t>
+  </si>
+  <si>
+    <t>Will the EUR/USD open price be above 1.09380 at Jul 28, 2023 at 3pm EDT?</t>
+  </si>
+  <si>
+    <t>Will the EUR/USD open price be above 1.09260 at Jul 28, 2023 at 3pm EDT?</t>
+  </si>
+  <si>
+    <t>Will the EUR/USD open price be above 1.09140 at Jul 28, 2023 at 3pm EDT?</t>
+  </si>
+  <si>
+    <t>Will the EUR/USD open price be above 1.09020 at Jul 28, 2023 at 3pm EDT?</t>
+  </si>
+  <si>
+    <t>Will the EUR/USD open price be above 1.08900 at Jul 28, 2023 at 3pm EDT?</t>
+  </si>
+  <si>
+    <t>Will the EUR/USD open price be above 1.08780 at Jul 28, 2023 at 3pm EDT?</t>
+  </si>
+  <si>
+    <t>Will the EUR/USD open price be above 1.08660 at Jul 28, 2023 at 3pm EDT?</t>
+  </si>
+  <si>
+    <t>Will the minimum EUR/USD exchange rate reach 1 by Dec 29, 2023?</t>
+  </si>
+  <si>
+    <t>2023-12-29T16:00:00Z</t>
+  </si>
+  <si>
+    <t>Will the minimum EUR/USD exchange rate reach 0.95 by Dec 29, 2023?</t>
+  </si>
+  <si>
+    <t>Will the minimum EUR/USD exchange rate reach 0.9 by Dec 29, 2023?</t>
+  </si>
+  <si>
+    <t>Will the maximum EUR/USD exchange rate reach 1.25 by Dec 29, 2023?</t>
+  </si>
+  <si>
+    <t>Will the maximum EUR/USD exchange rate reach 1.20 by Dec 29, 2023?</t>
+  </si>
+  <si>
+    <t>Will the maximum EUR/USD exchange rate reach 1.15 by Dec 29, 2023?</t>
+  </si>
+  <si>
+    <t>Min: 0.06350515167948086 Max:  nan</t>
+  </si>
+  <si>
+    <t>Min: 0.06349823777332028 Max:  nan</t>
+  </si>
+  <si>
+    <t>Min: 0.0634982055786252 Max:  nan</t>
+  </si>
+  <si>
+    <t>Min: 0.06349817338414927 Max:  nan</t>
+  </si>
+  <si>
+    <t>Min: 0.06349814118686761 Max:  nan</t>
+  </si>
+  <si>
+    <t>Min: 0.0634981089879892 Max:  nan</t>
+  </si>
+  <si>
+    <t>Min: 0.06349807678459575 Max:  nan</t>
+  </si>
+  <si>
+    <t>Min: 0.06349804458133232 Max:  nan</t>
+  </si>
+  <si>
+    <t>Min: 0.06349801238380885 Max:  nan</t>
+  </si>
+  <si>
+    <t>Min: 0.06349798018797077 Max:  nan</t>
+  </si>
+  <si>
+    <t>Min: 0.06349794799302334 Max:  nan</t>
+  </si>
+  <si>
+    <t>Min: 0.06349791579554208 Max:  nan</t>
+  </si>
+  <si>
+    <t>Min: 0.06349788360249618 Max:  nan</t>
+  </si>
+  <si>
+    <t>Min: 0.06349785140466715 Max:  nan</t>
+  </si>
+  <si>
+    <t>Min: 0.0634978192116286 Max:  nan</t>
+  </si>
+  <si>
+    <t>Min: 0.06349778701414846 Max:  nan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,7 +442,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,18 +493,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAFAD2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF7F7F7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -453,21 +609,6 @@
       <top style="medium">
         <color rgb="FFBEC1CB"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFBEC1CB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFBEC1CB"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFBEC1CB"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFBEC1CB"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -539,7 +680,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -569,28 +710,19 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -602,7 +734,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -617,16 +749,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,12 +1085,1310 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8466C5D6-701B-46E3-B7B2-260B1B763E8F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1">
+        <v>1.099675</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>140.3545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="D6">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6">
+        <v>300</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6">
+        <v>1.1033999999999999</v>
+      </c>
+      <c r="K6">
+        <v>1.099675</v>
+      </c>
+      <c r="L6" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6">
+        <v>49.738512533006229</v>
+      </c>
+      <c r="N6">
+        <v>-57.746340210529318</v>
+      </c>
+      <c r="O6">
+        <v>65</v>
+      </c>
+      <c r="P6">
+        <v>7.2536597894706789</v>
+      </c>
+      <c r="Q6">
+        <v>55</v>
+      </c>
+      <c r="R6">
+        <v>47.746340210529318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7">
+        <v>425</v>
+      </c>
+      <c r="G7">
+        <v>72</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7">
+        <v>1.1022000000000001</v>
+      </c>
+      <c r="K7">
+        <v>1.099675</v>
+      </c>
+      <c r="L7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7">
+        <v>49.941461859853099</v>
+      </c>
+      <c r="N7">
+        <v>-65.50341951862373</v>
+      </c>
+      <c r="O7">
+        <v>82</v>
+      </c>
+      <c r="P7">
+        <v>16.496580481376267</v>
+      </c>
+      <c r="Q7">
+        <v>71</v>
+      </c>
+      <c r="R7">
+        <v>54.50341951862373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="D8">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8">
+        <v>405</v>
+      </c>
+      <c r="G8">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8">
+        <v>1.101</v>
+      </c>
+      <c r="K8">
+        <v>1.099675</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8">
+        <v>49.989339376929067</v>
+      </c>
+      <c r="N8">
+        <v>-62.822319026317672</v>
+      </c>
+      <c r="O8">
+        <v>94</v>
+      </c>
+      <c r="P8">
+        <v>31.177680973682332</v>
+      </c>
+      <c r="Q8">
+        <v>84</v>
+      </c>
+      <c r="R8">
+        <v>52.822319026317672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="D9">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9">
+        <v>75</v>
+      </c>
+      <c r="G9">
+        <v>93</v>
+      </c>
+      <c r="H9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9">
+        <v>1.0998000000000001</v>
+      </c>
+      <c r="K9">
+        <v>1.099675</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9">
+        <v>49.997264016942623</v>
+      </c>
+      <c r="N9">
+        <v>-50.273712841922304</v>
+      </c>
+      <c r="O9">
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <v>49.726287158077696</v>
+      </c>
+      <c r="Q9">
+        <v>91</v>
+      </c>
+      <c r="R9">
+        <v>41.273712841922304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="D10">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10">
+        <v>1.0986</v>
+      </c>
+      <c r="K10">
+        <v>1.099675</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10">
+        <v>49.99112051819877</v>
+      </c>
+      <c r="N10">
+        <v>-28.645781936274702</v>
+      </c>
+      <c r="O10">
+        <v>97</v>
+      </c>
+      <c r="P10">
+        <v>68.354218063725298</v>
+      </c>
+      <c r="Q10">
+        <v>89</v>
+      </c>
+      <c r="R10">
+        <v>20.645781936274702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="D11">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11">
+        <v>1.0973999999999999</v>
+      </c>
+      <c r="K11">
+        <v>1.099675</v>
+      </c>
+      <c r="L11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11">
+        <v>49.950194445813395</v>
+      </c>
+      <c r="N11">
+        <v>-16.786278328009431</v>
+      </c>
+      <c r="O11">
+        <v>100</v>
+      </c>
+      <c r="P11">
+        <v>83.213721671990569</v>
+      </c>
+      <c r="Q11">
+        <v>93</v>
+      </c>
+      <c r="R11">
+        <v>9.7862783280094305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="D12">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12">
+        <v>1.0962000000000001</v>
+      </c>
+      <c r="K12">
+        <v>1.099675</v>
+      </c>
+      <c r="L12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12">
+        <v>49.770939868173215</v>
+      </c>
+      <c r="N12">
+        <v>-7.3781301645483097</v>
+      </c>
+      <c r="O12">
+        <v>100</v>
+      </c>
+      <c r="P12">
+        <v>92.62186983545169</v>
+      </c>
+      <c r="Q12">
+        <v>93</v>
+      </c>
+      <c r="R12">
+        <v>0.37813016454830972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="D13">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13">
+        <v>1.095</v>
+      </c>
+      <c r="K13">
+        <v>1.099675</v>
+      </c>
+      <c r="L13" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13">
+        <v>49.14954389755615</v>
+      </c>
+      <c r="N13">
+        <v>-2.6539570217563409</v>
+      </c>
+      <c r="O13">
+        <v>100</v>
+      </c>
+      <c r="P13">
+        <v>97.346042978243659</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>-94.346042978243659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="D14">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14">
+        <v>1.0938000000000001</v>
+      </c>
+      <c r="K14">
+        <v>1.099675</v>
+      </c>
+      <c r="L14" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14">
+        <v>47.439542596381038</v>
+      </c>
+      <c r="N14">
+        <v>-0.77412405724180644</v>
+      </c>
+      <c r="O14">
+        <v>100</v>
+      </c>
+      <c r="P14">
+        <v>99.225875942758194</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>-96.225875942758194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="D15">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15">
+        <v>1.0926</v>
+      </c>
+      <c r="K15">
+        <v>1.099675</v>
+      </c>
+      <c r="L15" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15">
+        <v>43.706072994768249</v>
+      </c>
+      <c r="N15">
+        <v>-0.18184975358511224</v>
+      </c>
+      <c r="O15">
+        <v>100</v>
+      </c>
+      <c r="P15">
+        <v>99.818150246414888</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>-96.818150246414888</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="D16">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16">
+        <v>1.0913999999999999</v>
+      </c>
+      <c r="K16">
+        <v>1.099675</v>
+      </c>
+      <c r="L16" t="s">
+        <v>109</v>
+      </c>
+      <c r="M16">
+        <v>37.243083012132672</v>
+      </c>
+      <c r="N16">
+        <v>-3.4223175996146438E-2</v>
+      </c>
+      <c r="O16">
+        <v>100</v>
+      </c>
+      <c r="P16">
+        <v>99.965776824003854</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>-96.965776824003854</v>
+      </c>
+    </row>
+    <row r="17" spans="4:18">
+      <c r="D17">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17">
+        <v>1.0902000000000001</v>
+      </c>
+      <c r="K17">
+        <v>1.099675</v>
+      </c>
+      <c r="L17" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17">
+        <v>28.378377037621902</v>
+      </c>
+      <c r="N17">
+        <v>-5.138629317642085E-3</v>
+      </c>
+      <c r="O17">
+        <v>100</v>
+      </c>
+      <c r="P17">
+        <v>99.994861370682358</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>-96.994861370682358</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18">
+      <c r="D18">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18">
+        <v>1.089</v>
+      </c>
+      <c r="K18">
+        <v>1.099675</v>
+      </c>
+      <c r="L18" t="s">
+        <v>111</v>
+      </c>
+      <c r="M18">
+        <v>18.75120168334653</v>
+      </c>
+      <c r="N18">
+        <v>-6.1356142040835948E-4</v>
+      </c>
+      <c r="O18">
+        <v>100</v>
+      </c>
+      <c r="P18">
+        <v>99.999386438579592</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>-96.999386438579592</v>
+      </c>
+    </row>
+    <row r="19" spans="4:18">
+      <c r="D19">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19">
+        <v>1.0878000000000001</v>
+      </c>
+      <c r="K19">
+        <v>1.099675</v>
+      </c>
+      <c r="L19" t="s">
+        <v>112</v>
+      </c>
+      <c r="M19">
+        <v>10.479046590933683</v>
+      </c>
+      <c r="N19">
+        <v>-5.8098903934933332E-5</v>
+      </c>
+      <c r="O19">
+        <v>100</v>
+      </c>
+      <c r="P19">
+        <v>99.999941901096065</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>-96.999941901096065</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18">
+      <c r="D20">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20">
+        <v>1.0866</v>
+      </c>
+      <c r="K20">
+        <v>1.099675</v>
+      </c>
+      <c r="L20" t="s">
+        <v>113</v>
+      </c>
+      <c r="M20">
+        <v>4.8596140099158021</v>
+      </c>
+      <c r="N20">
+        <v>-4.3528609126042284E-6</v>
+      </c>
+      <c r="O20">
+        <v>100</v>
+      </c>
+      <c r="P20">
+        <v>99.999995647139087</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>-99.999995647139087</v>
+      </c>
+    </row>
+    <row r="21" spans="4:18">
+      <c r="D21">
+        <v>576</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21">
+        <v>3454</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1.1082738293364225</v>
+      </c>
+      <c r="L21">
+        <v>6.1204824399260616E-2</v>
+      </c>
+      <c r="M21">
+        <v>-5.4396714300544637E-2</v>
+      </c>
+      <c r="N21">
+        <v>-59.955466705561598</v>
+      </c>
+      <c r="O21">
+        <v>60</v>
+      </c>
+      <c r="P21">
+        <v>4.4533294438401282E-2</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>0.95546670556159874</v>
+      </c>
+    </row>
+    <row r="22" spans="4:18">
+      <c r="D22">
+        <v>577</v>
+      </c>
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22">
+        <v>1598</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22">
+        <v>0.95</v>
+      </c>
+      <c r="K22">
+        <v>1.1082738293364225</v>
+      </c>
+      <c r="L22">
+        <v>6.1204824399260616E-2</v>
+      </c>
+      <c r="M22">
+        <v>-7.3921092281005942E-5</v>
+      </c>
+      <c r="N22">
+        <v>-98.999962588058665</v>
+      </c>
+      <c r="O22">
+        <v>99</v>
+      </c>
+      <c r="P22">
+        <v>3.741194133177903E-5</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>-3.741194133177903E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="4:18">
+      <c r="D23">
+        <v>578</v>
+      </c>
+      <c r="E23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23">
+        <v>600</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23">
+        <v>0.9</v>
+      </c>
+      <c r="K23">
+        <v>1.1082738293364225</v>
+      </c>
+      <c r="L23">
+        <v>6.1204824399260616E-2</v>
+      </c>
+      <c r="M23">
+        <v>-5.4963682431773158E-9</v>
+      </c>
+      <c r="N23">
+        <v>-14.999999998265782</v>
+      </c>
+      <c r="O23">
+        <v>15</v>
+      </c>
+      <c r="P23">
+        <v>1.7342181504179223E-9</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>-1.7342181504179223E-9</v>
+      </c>
+    </row>
+    <row r="24" spans="4:18">
+      <c r="D24">
+        <v>579</v>
+      </c>
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24">
+        <v>232</v>
+      </c>
+      <c r="G24">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24">
+        <v>1.25</v>
+      </c>
+      <c r="K24">
+        <v>1.1082738293364225</v>
+      </c>
+      <c r="L24">
+        <v>6.1206868646025869E-2</v>
+      </c>
+      <c r="M24">
+        <v>0.12028044773908282</v>
+      </c>
+      <c r="N24">
+        <v>-14.887270156282035</v>
+      </c>
+      <c r="O24">
+        <v>15</v>
+      </c>
+      <c r="P24">
+        <v>0.11272984371796485</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>-0.11272984371796485</v>
+      </c>
+    </row>
+    <row r="25" spans="4:18">
+      <c r="D25">
+        <v>580</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25">
+        <v>2160</v>
+      </c>
+      <c r="G25">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25">
+        <v>1.2</v>
+      </c>
+      <c r="K25">
+        <v>1.1082738293358605</v>
+      </c>
+      <c r="L25">
+        <v>6.1206459796672823E-2</v>
+      </c>
+      <c r="M25">
+        <v>2.6863921250972878</v>
+      </c>
+      <c r="N25">
+        <v>-94.943348809680955</v>
+      </c>
+      <c r="O25">
+        <v>99</v>
+      </c>
+      <c r="P25">
+        <v>4.0566511903190401</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>-4.0566511903190401</v>
+      </c>
+    </row>
+    <row r="26" spans="4:18">
+      <c r="D26">
+        <v>581</v>
+      </c>
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26">
+        <v>715</v>
+      </c>
+      <c r="G26">
+        <v>73</v>
+      </c>
+      <c r="H26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K26">
+        <v>1.1082738293358605</v>
+      </c>
+      <c r="L26">
+        <v>6.1206050947319769E-2</v>
+      </c>
+      <c r="M26">
+        <v>13.222806378555287</v>
+      </c>
+      <c r="N26">
+        <v>-48.445636220512775</v>
+      </c>
+      <c r="O26">
+        <v>88</v>
+      </c>
+      <c r="P26">
+        <v>39.554363779487225</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>-38.554363779487225</v>
+      </c>
+    </row>
+    <row r="27" spans="4:18">
+      <c r="D27">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27">
+        <v>1.0866</v>
+      </c>
+      <c r="K27">
+        <v>1.099675</v>
+      </c>
+      <c r="L27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M27">
+        <v>5.3060443416182101</v>
+      </c>
+      <c r="N27">
+        <v>-1.4265921763012557E-5</v>
+      </c>
+      <c r="O27">
+        <v>100</v>
+      </c>
+      <c r="P27">
+        <v>99.999985734078237</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+      <c r="R27">
+        <v>-96.999985734078237</v>
+      </c>
+    </row>
+    <row r="28" spans="4:18">
+      <c r="D28">
+        <v>561</v>
+      </c>
+      <c r="E28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28">
+        <v>3454</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>92</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1.1082753128311704</v>
+      </c>
+      <c r="L28">
+        <v>6.1204824399260616E-2</v>
+      </c>
+      <c r="M28">
+        <v>-5.4389000088675109E-2</v>
+      </c>
+      <c r="N28">
+        <v>-59.955473612006536</v>
+      </c>
+      <c r="O28">
+        <v>60</v>
+      </c>
+      <c r="P28">
+        <v>4.452638799346182E-2</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>0.95547361200653813</v>
+      </c>
+    </row>
+    <row r="29" spans="4:18">
+      <c r="D29">
+        <v>562</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29">
+        <v>1598</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>92</v>
+      </c>
+      <c r="J29">
+        <v>0.95</v>
+      </c>
+      <c r="K29">
+        <v>1.1082753128306086</v>
+      </c>
+      <c r="L29">
+        <v>6.1204824399260616E-2</v>
+      </c>
+      <c r="M29">
+        <v>-7.3906097412997177E-5</v>
+      </c>
+      <c r="N29">
+        <v>-98.999962596097475</v>
+      </c>
+      <c r="O29">
+        <v>99</v>
+      </c>
+      <c r="P29">
+        <v>3.7403902529423715E-5</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>-3.7403902529423715E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="4:18">
+      <c r="D30">
+        <v>563</v>
+      </c>
+      <c r="E30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30">
+        <v>600</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="H30" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30">
+        <v>0.9</v>
+      </c>
+      <c r="K30">
+        <v>1.1082753128306086</v>
+      </c>
+      <c r="L30">
+        <v>6.1204824399260616E-2</v>
+      </c>
+      <c r="M30">
+        <v>-5.494903899743807E-9</v>
+      </c>
+      <c r="N30">
+        <v>-14.999999998266269</v>
+      </c>
+      <c r="O30">
+        <v>15</v>
+      </c>
+      <c r="P30">
+        <v>1.7337305408298002E-9</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>-1.7337305408298002E-9</v>
+      </c>
+    </row>
+    <row r="31" spans="4:18">
+      <c r="D31">
+        <v>564</v>
+      </c>
+      <c r="E31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31">
+        <v>232</v>
+      </c>
+      <c r="G31">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>92</v>
+      </c>
+      <c r="I31">
+        <v>1.25</v>
+      </c>
+      <c r="K31">
+        <v>1.1082753128306086</v>
+      </c>
+      <c r="L31">
+        <v>6.1206868646025869E-2</v>
+      </c>
+      <c r="M31">
+        <v>0.12029569687011175</v>
+      </c>
+      <c r="N31">
+        <v>-14.887254271985656</v>
+      </c>
+      <c r="O31">
+        <v>15</v>
+      </c>
+      <c r="P31">
+        <v>0.11274572801434368</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>-0.11274572801434368</v>
+      </c>
+    </row>
+    <row r="32" spans="4:18">
+      <c r="D32">
+        <v>565</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32">
+        <v>2160</v>
+      </c>
+      <c r="G32">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32">
+        <v>1.2</v>
+      </c>
+      <c r="K32">
+        <v>1.1082753128306086</v>
+      </c>
+      <c r="L32">
+        <v>6.1206459796672823E-2</v>
+      </c>
+      <c r="M32">
+        <v>2.6865984703964956</v>
+      </c>
+      <c r="N32">
+        <v>-94.942965592329315</v>
+      </c>
+      <c r="O32">
+        <v>99</v>
+      </c>
+      <c r="P32">
+        <v>4.0570344076706792</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>-4.0570344076706792</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18">
+      <c r="D33">
+        <v>566</v>
+      </c>
+      <c r="E33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33">
+        <v>715</v>
+      </c>
+      <c r="G33">
+        <v>73</v>
+      </c>
+      <c r="H33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K33">
+        <v>1.1082753128306086</v>
+      </c>
+      <c r="L33">
+        <v>6.1206050947319769E-2</v>
+      </c>
+      <c r="M33">
+        <v>13.223108221788685</v>
+      </c>
+      <c r="N33">
+        <v>-48.443669288898313</v>
+      </c>
+      <c r="O33">
+        <v>88</v>
+      </c>
+      <c r="P33">
+        <v>39.556330711101687</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>-38.556330711101687</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -967,11 +2397,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92474F6-EE55-428A-8373-E4A438634E03}">
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -980,16 +2410,16 @@
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="K5" t="s">
         <v>0</v>
       </c>
@@ -998,528 +2428,528 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A6" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="K6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="13" t="s">
         <v>58</v>
       </c>
       <c r="K7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="11">
         <v>1.09924</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>1.09921</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="11">
         <v>1.0992299999999999</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="11">
         <v>0.52</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="11">
         <v>1.09935</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>1.09931</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="11">
         <v>1.0993299999999999</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <v>1.54</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <v>1.09924</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <v>1.09921</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="11">
         <v>1.0992299999999999</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="11">
         <v>0.52</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="11">
         <v>1.0996300000000001</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <v>1.09958</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="11">
         <v>1.09961</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="11">
         <v>4.3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="11">
         <v>1.09995</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="11">
         <v>1.09998</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="11">
         <v>8.02</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="11">
         <v>1.1003799999999999</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="11">
         <v>1.10033</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="11">
         <v>1.1003499999999999</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="11">
         <v>11.78</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="11">
         <v>1.1008800000000001</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="11">
         <v>1.1008199999999999</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="11">
         <v>1.1008500000000001</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="11">
         <v>16.703499999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="11">
         <v>1.10277</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="11">
         <v>1.1026899999999999</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="11">
         <v>1.10273</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="11">
         <v>35.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A16" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="11">
         <v>1.10436</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="11">
         <v>1.1042400000000001</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="11">
         <v>1.1043000000000001</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="11">
         <v>51.244999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="11">
         <v>1.10602</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="11">
         <v>1.10592</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="11">
         <v>1.1059699999999999</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="11">
         <v>67.900000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A18" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="11">
         <v>1.10768</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="11">
         <v>1.10755</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="11">
         <v>1.10762</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="11">
         <v>84.4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="11">
         <v>1.10914</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="11">
         <v>1.1090100000000001</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="11">
         <v>1.1090800000000001</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="11">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="11">
         <v>1.1115900000000001</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="11">
         <v>1.1113599999999999</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="11">
         <v>1.11148</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="11">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+    <row r="21" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="11">
         <v>1.11297</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="11">
         <v>1.1127400000000001</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="11">
         <v>1.11286</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="11">
         <v>136.80000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A22" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="11">
         <v>1.11419</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="11">
         <v>1.1139600000000001</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="11">
         <v>1.11408</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="11">
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="11">
         <v>1.11571</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="11">
         <v>1.11548</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="11">
         <v>1.1155999999999999</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="11">
         <v>164.2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A24" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="11">
         <v>1.1169800000000001</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="11">
         <v>1.1167499999999999</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="11">
         <v>1.11687</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="11">
         <v>176.9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A25" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="11">
         <v>1.11805</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="11">
         <v>1.11782</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="11">
         <v>1.1179399999999999</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="11">
         <v>187.6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A26" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="11">
         <v>1.12866</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="11">
         <v>1.1281300000000001</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="11">
         <v>1.1284000000000001</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="11">
         <v>292.2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A27" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="11">
         <v>1.1351100000000001</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="11">
         <v>1.1343799999999999</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="11">
         <v>1.1347499999999999</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="11">
         <v>355.7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+    <row r="28" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A28" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="11">
         <v>1.14544</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="11">
         <v>1.14341</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="11">
         <v>1.1444300000000001</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="11">
         <v>452.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+    <row r="29" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A29" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="11">
         <v>1.1583600000000001</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="11">
         <v>1.15533</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="11">
         <v>1.1568499999999999</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="11">
         <v>576.70000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A30" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="11">
         <v>1.1682900000000001</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="11">
         <v>1.16676</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="11">
         <v>1.16753</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="11">
         <v>683.5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A31" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="11">
         <v>1.17879</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="11">
         <v>1.17676</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="11">
         <v>1.17778</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="11">
         <v>786</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A32" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="11">
         <v>1.20899</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="11">
         <v>1.2039599999999999</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="11">
         <v>1.20648</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="11">
         <v>786</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
+    <row r="33" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A33" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-    </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+    </row>
+    <row r="34" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A34" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="24"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="21"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="25" t="s">
+      <c r="K34" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="28" t="s">
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="T34" s="30" t="s">
+      <c r="T34" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="U34" s="31"/>
-      <c r="V34" s="32" t="s">
+      <c r="U34" s="28"/>
+      <c r="V34" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="W34" s="33"/>
-    </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
+      <c r="W34" s="30"/>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A35" s="18"/>
       <c r="B35" s="5" t="s">
         <v>8</v>
       </c>
@@ -1571,7 +3001,7 @@
       <c r="R35" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="S35" s="29"/>
+      <c r="S35" s="26"/>
       <c r="T35" s="7" t="s">
         <v>12</v>
       </c>
@@ -1585,714 +3015,714 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1">
       <c r="A36" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="10">
-        <v>7.08</v>
+        <v>11</v>
       </c>
       <c r="C36" s="10">
-        <v>6.96</v>
+        <v>11</v>
       </c>
       <c r="D36" s="10">
-        <v>6.89</v>
+        <v>11</v>
       </c>
       <c r="E36" s="10">
-        <v>6.84</v>
+        <v>11</v>
       </c>
       <c r="F36" s="10">
-        <v>6.81</v>
+        <v>11</v>
       </c>
       <c r="G36" s="10">
-        <v>6.78</v>
+        <v>11</v>
       </c>
       <c r="H36" s="10">
-        <v>6.76</v>
+        <v>11</v>
       </c>
       <c r="I36" s="10">
-        <v>6.75</v>
-      </c>
-      <c r="J36" s="11">
-        <v>6.72</v>
+        <v>11</v>
+      </c>
+      <c r="J36" s="10">
+        <v>11</v>
       </c>
       <c r="K36" s="10">
-        <v>6.71</v>
+        <v>11</v>
       </c>
       <c r="L36" s="10">
-        <v>6.71</v>
+        <v>11</v>
       </c>
       <c r="M36" s="10">
-        <v>6.72</v>
+        <v>11</v>
       </c>
       <c r="N36" s="10">
-        <v>6.72</v>
+        <v>11</v>
       </c>
       <c r="O36" s="10">
-        <v>6.74</v>
+        <v>11</v>
       </c>
       <c r="P36" s="10">
-        <v>6.76</v>
+        <v>11</v>
       </c>
       <c r="Q36" s="10">
-        <v>6.8</v>
+        <v>11</v>
       </c>
       <c r="R36" s="10">
-        <v>6.87</v>
-      </c>
-      <c r="S36" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="T36" s="13">
-        <v>-0.08</v>
-      </c>
-      <c r="U36" s="13">
-        <v>-0.16</v>
-      </c>
-      <c r="V36" s="13">
-        <v>0.04</v>
-      </c>
-      <c r="W36" s="13">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="S36" s="10">
+        <v>11</v>
+      </c>
+      <c r="T36" s="10">
+        <v>11</v>
+      </c>
+      <c r="U36" s="10">
+        <v>11</v>
+      </c>
+      <c r="V36" s="10">
+        <v>11</v>
+      </c>
+      <c r="W36" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15.75" thickBot="1">
       <c r="A37" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="10">
-        <v>6.21</v>
+        <v>11</v>
       </c>
       <c r="C37" s="10">
-        <v>6.12</v>
+        <v>11</v>
       </c>
       <c r="D37" s="10">
-        <v>6.06</v>
+        <v>11</v>
       </c>
       <c r="E37" s="10">
-        <v>6.03</v>
+        <v>11</v>
       </c>
       <c r="F37" s="10">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G37" s="10">
-        <v>5.97</v>
+        <v>11</v>
       </c>
       <c r="H37" s="10">
-        <v>5.96</v>
+        <v>11</v>
       </c>
       <c r="I37" s="10">
-        <v>5.94</v>
-      </c>
-      <c r="J37" s="11">
-        <v>5.91</v>
+        <v>11</v>
+      </c>
+      <c r="J37" s="10">
+        <v>11</v>
       </c>
       <c r="K37" s="10">
-        <v>5.9</v>
+        <v>11</v>
       </c>
       <c r="L37" s="10">
-        <v>5.89</v>
+        <v>11</v>
       </c>
       <c r="M37" s="10">
-        <v>5.88</v>
+        <v>11</v>
       </c>
       <c r="N37" s="10">
-        <v>5.88</v>
+        <v>11</v>
       </c>
       <c r="O37" s="10">
-        <v>5.88</v>
+        <v>11</v>
       </c>
       <c r="P37" s="10">
-        <v>5.88</v>
+        <v>11</v>
       </c>
       <c r="Q37" s="10">
-        <v>5.89</v>
+        <v>11</v>
       </c>
       <c r="R37" s="10">
-        <v>5.92</v>
-      </c>
-      <c r="S37" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="T37" s="13">
-        <v>-0.12</v>
-      </c>
-      <c r="U37" s="13">
-        <v>-0.22</v>
-      </c>
-      <c r="V37" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="W37" s="13">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="S37" s="10">
+        <v>11</v>
+      </c>
+      <c r="T37" s="10">
+        <v>11</v>
+      </c>
+      <c r="U37" s="10">
+        <v>11</v>
+      </c>
+      <c r="V37" s="10">
+        <v>11</v>
+      </c>
+      <c r="W37" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15.75" thickBot="1">
       <c r="A38" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="10">
-        <v>6.18</v>
+        <v>11</v>
       </c>
       <c r="C38" s="10">
-        <v>6.01</v>
+        <v>11</v>
       </c>
       <c r="D38" s="10">
-        <v>5.92</v>
+        <v>11</v>
       </c>
       <c r="E38" s="10">
-        <v>5.86</v>
+        <v>11</v>
       </c>
       <c r="F38" s="10">
-        <v>5.82</v>
+        <v>11</v>
       </c>
       <c r="G38" s="10">
-        <v>5.78</v>
+        <v>11</v>
       </c>
       <c r="H38" s="10">
-        <v>5.76</v>
+        <v>11</v>
       </c>
       <c r="I38" s="10">
-        <v>5.74</v>
-      </c>
-      <c r="J38" s="11">
-        <v>5.71</v>
+        <v>11</v>
+      </c>
+      <c r="J38" s="10">
+        <v>11</v>
       </c>
       <c r="K38" s="10">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="L38" s="10">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="M38" s="10">
-        <v>5.71</v>
+        <v>11</v>
       </c>
       <c r="N38" s="10">
-        <v>5.72</v>
+        <v>11</v>
       </c>
       <c r="O38" s="10">
-        <v>5.74</v>
+        <v>11</v>
       </c>
       <c r="P38" s="10">
-        <v>5.77</v>
+        <v>11</v>
       </c>
       <c r="Q38" s="10">
-        <v>5.83</v>
+        <v>11</v>
       </c>
       <c r="R38" s="10">
-        <v>5.94</v>
-      </c>
-      <c r="S38" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="T38" s="13">
-        <v>-0.1</v>
-      </c>
-      <c r="U38" s="13">
-        <v>-0.19</v>
-      </c>
-      <c r="V38" s="13">
-        <v>0.06</v>
-      </c>
-      <c r="W38" s="13">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="S38" s="10">
+        <v>11</v>
+      </c>
+      <c r="T38" s="10">
+        <v>11</v>
+      </c>
+      <c r="U38" s="10">
+        <v>11</v>
+      </c>
+      <c r="V38" s="10">
+        <v>11</v>
+      </c>
+      <c r="W38" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15.75" thickBot="1">
       <c r="A39" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B39" s="10">
-        <v>6.82</v>
+        <v>11</v>
       </c>
       <c r="C39" s="10">
-        <v>6.59</v>
+        <v>11</v>
       </c>
       <c r="D39" s="10">
-        <v>6.46</v>
+        <v>11</v>
       </c>
       <c r="E39" s="10">
-        <v>6.37</v>
+        <v>11</v>
       </c>
       <c r="F39" s="10">
-        <v>6.31</v>
+        <v>11</v>
       </c>
       <c r="G39" s="10">
-        <v>6.26</v>
+        <v>11</v>
       </c>
       <c r="H39" s="10">
-        <v>6.21</v>
+        <v>11</v>
       </c>
       <c r="I39" s="10">
-        <v>6.18</v>
-      </c>
-      <c r="J39" s="11">
-        <v>6.12</v>
+        <v>11</v>
+      </c>
+      <c r="J39" s="10">
+        <v>11</v>
       </c>
       <c r="K39" s="10">
-        <v>6.09</v>
+        <v>11</v>
       </c>
       <c r="L39" s="10">
-        <v>6.08</v>
+        <v>11</v>
       </c>
       <c r="M39" s="10">
-        <v>6.07</v>
+        <v>11</v>
       </c>
       <c r="N39" s="10">
-        <v>6.06</v>
+        <v>11</v>
       </c>
       <c r="O39" s="10">
-        <v>6.07</v>
+        <v>11</v>
       </c>
       <c r="P39" s="10">
-        <v>6.08</v>
+        <v>11</v>
       </c>
       <c r="Q39" s="10">
-        <v>6.12</v>
+        <v>11</v>
       </c>
       <c r="R39" s="10">
-        <v>6.19</v>
-      </c>
-      <c r="S39" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="T39" s="13">
-        <v>-0.24</v>
-      </c>
-      <c r="U39" s="13">
-        <v>-0.47</v>
-      </c>
-      <c r="V39" s="13">
-        <v>0.06</v>
-      </c>
-      <c r="W39" s="13">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="S39" s="10">
+        <v>11</v>
+      </c>
+      <c r="T39" s="10">
+        <v>11</v>
+      </c>
+      <c r="U39" s="10">
+        <v>11</v>
+      </c>
+      <c r="V39" s="10">
+        <v>11</v>
+      </c>
+      <c r="W39" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15.75" thickBot="1">
       <c r="A40" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B40" s="10">
-        <v>6.99</v>
+        <v>11</v>
       </c>
       <c r="C40" s="10">
-        <v>6.68</v>
+        <v>11</v>
       </c>
       <c r="D40" s="10">
-        <v>6.51</v>
+        <v>11</v>
       </c>
       <c r="E40" s="10">
-        <v>6.4</v>
+        <v>11</v>
       </c>
       <c r="F40" s="10">
-        <v>6.31</v>
+        <v>11</v>
       </c>
       <c r="G40" s="10">
-        <v>6.25</v>
+        <v>11</v>
       </c>
       <c r="H40" s="10">
-        <v>6.19</v>
+        <v>11</v>
       </c>
       <c r="I40" s="10">
-        <v>6.15</v>
-      </c>
-      <c r="J40" s="11">
-        <v>6.09</v>
+        <v>11</v>
+      </c>
+      <c r="J40" s="10">
+        <v>11</v>
       </c>
       <c r="K40" s="10">
-        <v>6.05</v>
+        <v>11</v>
       </c>
       <c r="L40" s="10">
-        <v>6.04</v>
+        <v>11</v>
       </c>
       <c r="M40" s="10">
-        <v>6.03</v>
+        <v>11</v>
       </c>
       <c r="N40" s="10">
-        <v>6.04</v>
+        <v>11</v>
       </c>
       <c r="O40" s="10">
-        <v>6.05</v>
+        <v>11</v>
       </c>
       <c r="P40" s="10">
-        <v>6.08</v>
+        <v>11</v>
       </c>
       <c r="Q40" s="10">
-        <v>6.14</v>
+        <v>11</v>
       </c>
       <c r="R40" s="10">
-        <v>6.27</v>
-      </c>
-      <c r="S40" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="T40" s="13">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="U40" s="13">
-        <v>-0.54</v>
-      </c>
-      <c r="V40" s="13">
-        <v>0.09</v>
-      </c>
-      <c r="W40" s="13">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="S40" s="10">
+        <v>11</v>
+      </c>
+      <c r="T40" s="10">
+        <v>11</v>
+      </c>
+      <c r="U40" s="10">
+        <v>11</v>
+      </c>
+      <c r="V40" s="10">
+        <v>11</v>
+      </c>
+      <c r="W40" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15.75" thickBot="1">
       <c r="A41" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="10">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="C41" s="10">
-        <v>7.05</v>
+        <v>11</v>
       </c>
       <c r="D41" s="10">
-        <v>6.81</v>
+        <v>11</v>
       </c>
       <c r="E41" s="10">
-        <v>6.65</v>
+        <v>11</v>
       </c>
       <c r="F41" s="10">
-        <v>6.53</v>
+        <v>11</v>
       </c>
       <c r="G41" s="10">
-        <v>6.43</v>
+        <v>11</v>
       </c>
       <c r="H41" s="10">
-        <v>6.36</v>
+        <v>11</v>
       </c>
       <c r="I41" s="10">
-        <v>6.29</v>
-      </c>
-      <c r="J41" s="11">
-        <v>6.2</v>
+        <v>11</v>
+      </c>
+      <c r="J41" s="10">
+        <v>11</v>
       </c>
       <c r="K41" s="10">
-        <v>6.14</v>
+        <v>11</v>
       </c>
       <c r="L41" s="10">
-        <v>6.12</v>
+        <v>11</v>
       </c>
       <c r="M41" s="10">
-        <v>6.11</v>
+        <v>11</v>
       </c>
       <c r="N41" s="10">
-        <v>6.1</v>
+        <v>11</v>
       </c>
       <c r="O41" s="10">
-        <v>6.11</v>
+        <v>11</v>
       </c>
       <c r="P41" s="10">
-        <v>6.14</v>
+        <v>11</v>
       </c>
       <c r="Q41" s="10">
-        <v>6.21</v>
+        <v>11</v>
       </c>
       <c r="R41" s="10">
-        <v>6.36</v>
-      </c>
-      <c r="S41" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="T41" s="13">
-        <v>-0.42</v>
-      </c>
-      <c r="U41" s="13">
-        <v>-0.84</v>
-      </c>
-      <c r="V41" s="13">
-        <v>0.11</v>
-      </c>
-      <c r="W41" s="13">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="S41" s="10">
+        <v>11</v>
+      </c>
+      <c r="T41" s="10">
+        <v>11</v>
+      </c>
+      <c r="U41" s="10">
+        <v>11</v>
+      </c>
+      <c r="V41" s="10">
+        <v>11</v>
+      </c>
+      <c r="W41" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="15.75" thickBot="1">
       <c r="A42" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="10">
-        <v>7.99</v>
+        <v>11</v>
       </c>
       <c r="C42" s="10">
-        <v>7.37</v>
+        <v>11</v>
       </c>
       <c r="D42" s="10">
-        <v>7.06</v>
+        <v>11</v>
       </c>
       <c r="E42" s="10">
-        <v>6.85</v>
+        <v>11</v>
       </c>
       <c r="F42" s="10">
-        <v>6.7</v>
+        <v>11</v>
       </c>
       <c r="G42" s="10">
-        <v>6.58</v>
+        <v>11</v>
       </c>
       <c r="H42" s="10">
-        <v>6.48</v>
+        <v>11</v>
       </c>
       <c r="I42" s="10">
-        <v>6.4</v>
-      </c>
-      <c r="J42" s="11">
-        <v>6.27</v>
+        <v>11</v>
+      </c>
+      <c r="J42" s="10">
+        <v>11</v>
       </c>
       <c r="K42" s="10">
-        <v>6.18</v>
+        <v>11</v>
       </c>
       <c r="L42" s="10">
-        <v>6.15</v>
+        <v>11</v>
       </c>
       <c r="M42" s="10">
-        <v>6.13</v>
+        <v>11</v>
       </c>
       <c r="N42" s="10">
-        <v>6.12</v>
+        <v>11</v>
       </c>
       <c r="O42" s="10">
-        <v>6.12</v>
+        <v>11</v>
       </c>
       <c r="P42" s="10">
-        <v>6.14</v>
+        <v>11</v>
       </c>
       <c r="Q42" s="10">
-        <v>6.2</v>
+        <v>11</v>
       </c>
       <c r="R42" s="10">
-        <v>6.35</v>
-      </c>
-      <c r="S42" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T42" s="13">
-        <v>-0.57999999999999996</v>
-      </c>
-      <c r="U42" s="13">
-        <v>-1.17</v>
-      </c>
-      <c r="V42" s="13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W42" s="13">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="S42" s="10">
+        <v>11</v>
+      </c>
+      <c r="T42" s="10">
+        <v>11</v>
+      </c>
+      <c r="U42" s="10">
+        <v>11</v>
+      </c>
+      <c r="V42" s="10">
+        <v>11</v>
+      </c>
+      <c r="W42" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15.75" thickBot="1">
       <c r="A43" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="10">
-        <v>8.9700000000000006</v>
+        <v>11</v>
       </c>
       <c r="C43" s="10">
-        <v>7.95</v>
+        <v>11</v>
       </c>
       <c r="D43" s="10">
-        <v>7.51</v>
+        <v>11</v>
       </c>
       <c r="E43" s="10">
-        <v>7.23</v>
+        <v>11</v>
       </c>
       <c r="F43" s="10">
-        <v>7.03</v>
+        <v>11</v>
       </c>
       <c r="G43" s="10">
-        <v>6.87</v>
+        <v>11</v>
       </c>
       <c r="H43" s="10">
-        <v>6.75</v>
+        <v>11</v>
       </c>
       <c r="I43" s="10">
-        <v>6.64</v>
-      </c>
-      <c r="J43" s="11">
-        <v>6.49</v>
+        <v>11</v>
+      </c>
+      <c r="J43" s="10">
+        <v>11</v>
       </c>
       <c r="K43" s="10">
-        <v>6.38</v>
+        <v>11</v>
       </c>
       <c r="L43" s="10">
-        <v>6.34</v>
+        <v>11</v>
       </c>
       <c r="M43" s="10">
-        <v>6.32</v>
+        <v>11</v>
       </c>
       <c r="N43" s="10">
-        <v>6.31</v>
+        <v>11</v>
       </c>
       <c r="O43" s="10">
-        <v>6.31</v>
+        <v>11</v>
       </c>
       <c r="P43" s="10">
-        <v>6.34</v>
+        <v>11</v>
       </c>
       <c r="Q43" s="10">
-        <v>6.42</v>
+        <v>11</v>
       </c>
       <c r="R43" s="10">
-        <v>6.62</v>
-      </c>
-      <c r="S43" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="T43" s="13">
-        <v>-0.72</v>
-      </c>
-      <c r="U43" s="13">
-        <v>-1.52</v>
-      </c>
-      <c r="V43" s="13">
-        <v>0.18</v>
-      </c>
-      <c r="W43" s="13">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="S43" s="10">
+        <v>11</v>
+      </c>
+      <c r="T43" s="10">
+        <v>11</v>
+      </c>
+      <c r="U43" s="10">
+        <v>11</v>
+      </c>
+      <c r="V43" s="10">
+        <v>11</v>
+      </c>
+      <c r="W43" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15.75" thickBot="1">
       <c r="A44" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="10">
-        <v>10.38</v>
+        <v>11</v>
       </c>
       <c r="C44" s="10">
-        <v>8.49</v>
+        <v>11</v>
       </c>
       <c r="D44" s="10">
-        <v>7.89</v>
+        <v>11</v>
       </c>
       <c r="E44" s="10">
-        <v>7.53</v>
+        <v>11</v>
       </c>
       <c r="F44" s="10">
-        <v>7.27</v>
+        <v>11</v>
       </c>
       <c r="G44" s="10">
-        <v>7.08</v>
+        <v>11</v>
       </c>
       <c r="H44" s="10">
-        <v>6.93</v>
+        <v>11</v>
       </c>
       <c r="I44" s="10">
-        <v>6.8</v>
-      </c>
-      <c r="J44" s="11">
-        <v>6.61</v>
+        <v>11</v>
+      </c>
+      <c r="J44" s="10">
+        <v>11</v>
       </c>
       <c r="K44" s="10">
-        <v>6.48</v>
+        <v>11</v>
       </c>
       <c r="L44" s="10">
-        <v>6.43</v>
+        <v>11</v>
       </c>
       <c r="M44" s="10">
-        <v>6.4</v>
+        <v>11</v>
       </c>
       <c r="N44" s="10">
-        <v>6.38</v>
+        <v>11</v>
       </c>
       <c r="O44" s="10">
-        <v>6.38</v>
+        <v>11</v>
       </c>
       <c r="P44" s="10">
-        <v>6.41</v>
+        <v>11</v>
       </c>
       <c r="Q44" s="10">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="R44" s="10">
-        <v>6.72</v>
-      </c>
-      <c r="S44" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="T44" s="13">
-        <v>-0.89</v>
-      </c>
-      <c r="U44" s="13">
-        <v>-2</v>
-      </c>
-      <c r="V44" s="13">
-        <v>0.22</v>
-      </c>
-      <c r="W44" s="13">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="S44" s="10">
+        <v>11</v>
+      </c>
+      <c r="T44" s="10">
+        <v>11</v>
+      </c>
+      <c r="U44" s="10">
+        <v>11</v>
+      </c>
+      <c r="V44" s="10">
+        <v>11</v>
+      </c>
+      <c r="W44" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="15.75" thickBot="1">
       <c r="A45" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>59</v>
+      <c r="B45" s="10">
+        <v>11</v>
       </c>
       <c r="C45" s="10">
-        <v>9.06</v>
+        <v>11</v>
       </c>
       <c r="D45" s="10">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="E45" s="10">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="F45" s="10">
-        <v>7.49</v>
+        <v>11</v>
       </c>
       <c r="G45" s="10">
-        <v>7.26</v>
+        <v>11</v>
       </c>
       <c r="H45" s="10">
-        <v>7.08</v>
+        <v>11</v>
       </c>
       <c r="I45" s="10">
-        <v>6.94</v>
-      </c>
-      <c r="J45" s="11">
-        <v>6.72</v>
+        <v>11</v>
+      </c>
+      <c r="J45" s="10">
+        <v>11</v>
       </c>
       <c r="K45" s="10">
-        <v>6.57</v>
+        <v>11</v>
       </c>
       <c r="L45" s="10">
-        <v>6.52</v>
+        <v>11</v>
       </c>
       <c r="M45" s="10">
-        <v>6.48</v>
+        <v>11</v>
       </c>
       <c r="N45" s="10">
-        <v>6.46</v>
+        <v>11</v>
       </c>
       <c r="O45" s="10">
-        <v>6.46</v>
+        <v>11</v>
       </c>
       <c r="P45" s="10">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="Q45" s="10">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="R45" s="10">
-        <v>6.86</v>
-      </c>
-      <c r="S45" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="T45" s="13">
-        <v>-1.03</v>
-      </c>
-      <c r="U45" s="13">
-        <v>-2.46</v>
-      </c>
-      <c r="V45" s="13">
-        <v>0.26</v>
-      </c>
-      <c r="W45" s="13">
-        <v>1.1000000000000001</v>
+        <v>11</v>
+      </c>
+      <c r="S45" s="10">
+        <v>11</v>
+      </c>
+      <c r="T45" s="10">
+        <v>11</v>
+      </c>
+      <c r="U45" s="10">
+        <v>11</v>
+      </c>
+      <c r="V45" s="10">
+        <v>11</v>
+      </c>
+      <c r="W45" s="10">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2306,179 +3736,7 @@
     <mergeCell ref="T34:U34"/>
     <mergeCell ref="V34:W34"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B36" r:id="rId1" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{872C7739-46DD-450D-9D47-1673377BB895}"/>
-    <hyperlink ref="C36" r:id="rId2" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{F863C47E-EAE8-414A-8EA7-6CEEF3374FCE}"/>
-    <hyperlink ref="D36" r:id="rId3" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{6904B900-0197-402A-B6DB-5AB9DA2BB3DA}"/>
-    <hyperlink ref="E36" r:id="rId4" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{BC0B0844-F207-49E4-BBA5-03EB6672F066}"/>
-    <hyperlink ref="F36" r:id="rId5" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{D0A9B941-498E-4CA4-BD09-96E10CEF796F}"/>
-    <hyperlink ref="G36" r:id="rId6" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{54F7ECF6-B5F3-4710-88C5-CE712093AE46}"/>
-    <hyperlink ref="H36" r:id="rId7" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{616F69F4-79BA-4BF2-AE56-E7CD25367F42}"/>
-    <hyperlink ref="I36" r:id="rId8" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{402B7859-E88C-4756-99B0-1CA339500909}"/>
-    <hyperlink ref="J36" r:id="rId9" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{102A28C7-F93E-4BCE-A202-DC3CD4A14855}"/>
-    <hyperlink ref="K36" r:id="rId10" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{30F4C93D-E961-43F2-BA22-EAC7C6EBD1C2}"/>
-    <hyperlink ref="L36" r:id="rId11" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{11B9D64A-A199-4EC8-A45B-6C6D7F881F90}"/>
-    <hyperlink ref="M36" r:id="rId12" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{9E5E5646-D1B1-4098-9495-EA31B4245C25}"/>
-    <hyperlink ref="N36" r:id="rId13" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{D8D57A25-413B-4E1F-81A4-FC235B9DF597}"/>
-    <hyperlink ref="O36" r:id="rId14" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{90F99631-A9C7-41E4-8A43-49E555AEDBF8}"/>
-    <hyperlink ref="P36" r:id="rId15" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{E414B8A3-FD76-4A68-B152-1D3E31521CE0}"/>
-    <hyperlink ref="Q36" r:id="rId16" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{54560AA6-E009-4803-834D-0DA1F9A363BB}"/>
-    <hyperlink ref="R36" r:id="rId17" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{F0EC95BE-F0E5-453B-BEED-30CF6CEF04EE}"/>
-    <hyperlink ref="B37" r:id="rId18" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{8634E565-3118-4D7D-9A34-B88E6A2ACD0B}"/>
-    <hyperlink ref="C37" r:id="rId19" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{03D6B8D3-7115-4C84-98BD-F6979553D6E3}"/>
-    <hyperlink ref="D37" r:id="rId20" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{2C7D0EB4-D569-4511-96D9-7A8E8329183F}"/>
-    <hyperlink ref="E37" r:id="rId21" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{D11A1D33-3990-411E-BF8B-B2B07AD4C073}"/>
-    <hyperlink ref="F37" r:id="rId22" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{8703CA7B-DEB1-4E83-9B3E-59BFD4971E79}"/>
-    <hyperlink ref="G37" r:id="rId23" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{10BFBF8D-CEAE-4188-800A-C26F65C79383}"/>
-    <hyperlink ref="H37" r:id="rId24" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{EEC4E46F-FB19-48A7-83CB-1C8B5983BD79}"/>
-    <hyperlink ref="I37" r:id="rId25" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{9C6945B7-E1F3-4D50-AA82-1E631F6FB806}"/>
-    <hyperlink ref="J37" r:id="rId26" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{9A4C7E56-CF13-4B6F-8415-EE7262E03B89}"/>
-    <hyperlink ref="K37" r:id="rId27" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{64E9D2AA-A8D6-4283-9748-D93F49898AF2}"/>
-    <hyperlink ref="L37" r:id="rId28" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{B84CA299-F8C6-4310-AC89-3D5FE292532A}"/>
-    <hyperlink ref="M37" r:id="rId29" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{29B69C9B-ED27-4C0E-937B-7B2823B3DCE2}"/>
-    <hyperlink ref="N37" r:id="rId30" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{BB64F161-6F40-413B-BC76-2AF404E98ED1}"/>
-    <hyperlink ref="O37" r:id="rId31" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{01986488-F115-4693-BF3F-ABAD204EE438}"/>
-    <hyperlink ref="P37" r:id="rId32" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{A98F08E8-8797-4DDD-AEEB-5FBA1A469EF6}"/>
-    <hyperlink ref="Q37" r:id="rId33" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{EF62816C-86C3-4A28-9159-7F489CD90717}"/>
-    <hyperlink ref="R37" r:id="rId34" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{D5D0FAF5-4F3F-4C99-93FF-FFCBBBC99FB6}"/>
-    <hyperlink ref="B38" r:id="rId35" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{22525342-D101-4274-8185-68ADE723986D}"/>
-    <hyperlink ref="C38" r:id="rId36" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{0515B0E3-E4B7-4178-A93F-E51F06EAF7EA}"/>
-    <hyperlink ref="D38" r:id="rId37" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{EB934753-961D-4586-AC4C-2AABB17A5BF5}"/>
-    <hyperlink ref="E38" r:id="rId38" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{E0706916-8C9D-4611-A5B1-591B4DD6C2AA}"/>
-    <hyperlink ref="F38" r:id="rId39" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{EC16F5CA-C716-4124-8309-45EFC4EA0EDA}"/>
-    <hyperlink ref="G38" r:id="rId40" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{2021E207-80C0-412B-8677-1C2213C2C6CE}"/>
-    <hyperlink ref="H38" r:id="rId41" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{A4997D7B-7CC5-4A20-B6B1-E9135AABE41B}"/>
-    <hyperlink ref="I38" r:id="rId42" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{878DE1E0-89B4-43C8-8173-512D5ABC7759}"/>
-    <hyperlink ref="J38" r:id="rId43" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{499AB5CC-B2D4-4E4F-960B-D14D8F138F8E}"/>
-    <hyperlink ref="K38" r:id="rId44" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{E0C49F09-B1BF-430B-B99D-40841B600C5E}"/>
-    <hyperlink ref="L38" r:id="rId45" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{EF1C9484-AC57-46E9-BC7B-27155447F09B}"/>
-    <hyperlink ref="M38" r:id="rId46" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{B9A94225-719E-4A85-8738-47F13A065BD7}"/>
-    <hyperlink ref="N38" r:id="rId47" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{1423042B-2DBE-40B2-A923-1CAFA949FA4C}"/>
-    <hyperlink ref="O38" r:id="rId48" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{45B664A1-6F38-493E-B233-9AC324667F94}"/>
-    <hyperlink ref="P38" r:id="rId49" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{2CCC49BA-17D6-4509-A983-040E05927ED3}"/>
-    <hyperlink ref="Q38" r:id="rId50" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{A0142833-C2CB-4E14-B857-C1CBFD4E693C}"/>
-    <hyperlink ref="R38" r:id="rId51" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{55FE3A7F-6317-45F6-9BA5-9A67DF96C1CF}"/>
-    <hyperlink ref="B39" r:id="rId52" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{8932B477-3C6D-42C5-A1D2-03F9E1973A08}"/>
-    <hyperlink ref="C39" r:id="rId53" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{1C9B493F-D548-431E-BA6C-D442FF7F05EE}"/>
-    <hyperlink ref="D39" r:id="rId54" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{CCADC02C-355F-40A9-9990-D0904EAA1F0F}"/>
-    <hyperlink ref="E39" r:id="rId55" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{8ECAC8B7-0137-4DFA-81EF-3C70B5DEA943}"/>
-    <hyperlink ref="F39" r:id="rId56" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{00122C76-EA59-48A4-8021-F80AA7B55D04}"/>
-    <hyperlink ref="G39" r:id="rId57" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{33C51F17-2EA9-472C-B321-3E60C314805B}"/>
-    <hyperlink ref="H39" r:id="rId58" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{2680CACF-1F91-4201-8BA7-512A7793A751}"/>
-    <hyperlink ref="I39" r:id="rId59" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{3EA82B97-2A6F-4B76-AAB7-6DE96F35F6B2}"/>
-    <hyperlink ref="J39" r:id="rId60" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{A48F6734-F915-4FAB-8A89-4966D598DFFA}"/>
-    <hyperlink ref="K39" r:id="rId61" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{DCEF3FBA-67EF-41CC-B55C-65F6EFB5F2A4}"/>
-    <hyperlink ref="L39" r:id="rId62" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{E0E70567-1739-4D5D-BAB0-547F4DCB1821}"/>
-    <hyperlink ref="M39" r:id="rId63" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{F5DB6AFB-505D-450E-B459-881AA4B73DB5}"/>
-    <hyperlink ref="N39" r:id="rId64" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{412FF3DC-9138-4D27-8534-12A93D83424D}"/>
-    <hyperlink ref="O39" r:id="rId65" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{365E10E4-CF71-48CF-80CE-C30937BEC51A}"/>
-    <hyperlink ref="P39" r:id="rId66" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{6C476A97-CC51-4642-B2D9-E6E231DC42DF}"/>
-    <hyperlink ref="Q39" r:id="rId67" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{56B05025-21A7-443A-A64D-E5163F51E6EC}"/>
-    <hyperlink ref="R39" r:id="rId68" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{72721618-EF55-4427-8E69-85BF2CD5944D}"/>
-    <hyperlink ref="B40" r:id="rId69" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{E377804A-EABA-4083-BFA7-FACEDA17C203}"/>
-    <hyperlink ref="C40" r:id="rId70" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{E4D281EB-7BA7-4E06-A37F-393FFB8B0695}"/>
-    <hyperlink ref="D40" r:id="rId71" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{8C25CA04-0582-4E63-A908-D4FBACD7A888}"/>
-    <hyperlink ref="E40" r:id="rId72" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{E3ED9D8F-07EB-4AB4-8DF3-DFA09FBB7AF2}"/>
-    <hyperlink ref="F40" r:id="rId73" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{E7FBEC62-BDF9-4EDA-B28B-8403319A021F}"/>
-    <hyperlink ref="G40" r:id="rId74" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{22307F0A-A428-4429-A14B-9E0339E80BF5}"/>
-    <hyperlink ref="H40" r:id="rId75" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{FA76DF3C-6CB8-4045-92D5-231CE5515782}"/>
-    <hyperlink ref="I40" r:id="rId76" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{29B1C78F-F9EB-4716-B656-3E9497624778}"/>
-    <hyperlink ref="J40" r:id="rId77" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{3B6984D0-D580-48FD-95A2-44EF2702B569}"/>
-    <hyperlink ref="K40" r:id="rId78" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{B043F9FB-1B8F-4C23-945F-7F318169EE11}"/>
-    <hyperlink ref="L40" r:id="rId79" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{13570916-7ED8-42DB-BE7C-FA7AF0F68E45}"/>
-    <hyperlink ref="M40" r:id="rId80" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{A60D3569-46AF-4076-AA2C-CEB3A0B3F951}"/>
-    <hyperlink ref="N40" r:id="rId81" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{29F68D04-023A-4DC4-B162-967D6A6FF788}"/>
-    <hyperlink ref="O40" r:id="rId82" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{D1B03F0A-421F-40CD-A41F-9F358D233189}"/>
-    <hyperlink ref="P40" r:id="rId83" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{D611BDC4-EC8A-4F36-8622-69BFE0DB2391}"/>
-    <hyperlink ref="Q40" r:id="rId84" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{4E7B8FB8-887C-45A7-A7AD-350D649203B0}"/>
-    <hyperlink ref="R40" r:id="rId85" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{5C788AA9-CCD4-4D93-BE74-2D7962822FB5}"/>
-    <hyperlink ref="B41" r:id="rId86" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{50F5D9F0-E28B-4711-ADD2-A7581A2A22AB}"/>
-    <hyperlink ref="C41" r:id="rId87" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{0DC956A4-6615-4E98-9452-B91E7685EA72}"/>
-    <hyperlink ref="D41" r:id="rId88" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{D93FAE4B-0A69-4494-8B1E-340D63A52A88}"/>
-    <hyperlink ref="E41" r:id="rId89" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{2C920401-5CBB-4FAA-875C-73FE1B375784}"/>
-    <hyperlink ref="F41" r:id="rId90" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{A898AC4C-2752-447D-BF4C-6C1B18020E70}"/>
-    <hyperlink ref="G41" r:id="rId91" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{11E731B8-E26A-45A2-B428-9B21BC3B0558}"/>
-    <hyperlink ref="H41" r:id="rId92" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{4D2277F9-79D1-4AA1-9AFD-76BF86A01796}"/>
-    <hyperlink ref="I41" r:id="rId93" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{9E80406F-9E3A-4B93-88C2-F3BB791CCFCF}"/>
-    <hyperlink ref="J41" r:id="rId94" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{16FDB224-0A05-4D90-97F5-5E0EC9473AD9}"/>
-    <hyperlink ref="K41" r:id="rId95" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{ADD3959E-792C-4A7D-9D5C-132D8936175D}"/>
-    <hyperlink ref="L41" r:id="rId96" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{FADFE531-B2F1-45F2-942F-D90429DB1602}"/>
-    <hyperlink ref="M41" r:id="rId97" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{70A5A05D-BEBA-41A4-8355-159388557227}"/>
-    <hyperlink ref="N41" r:id="rId98" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{50DB49C0-B929-499F-921F-28472CB4468D}"/>
-    <hyperlink ref="O41" r:id="rId99" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{2D5D128A-2A6D-449E-9872-767652C752FF}"/>
-    <hyperlink ref="P41" r:id="rId100" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{B2DC3C26-1875-43C8-993E-6F14278E92F9}"/>
-    <hyperlink ref="Q41" r:id="rId101" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{0EF95CA0-13C1-40BF-9AAF-DD832CB9F8B3}"/>
-    <hyperlink ref="R41" r:id="rId102" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{4BDE5D0B-3BF6-4D6E-9428-26CCF7850B42}"/>
-    <hyperlink ref="B42" r:id="rId103" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{5CD878B5-C255-412F-A981-D8ED08EDD2AD}"/>
-    <hyperlink ref="C42" r:id="rId104" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{0CF96EFE-1DCE-4E79-A55E-CCFC3A3BA159}"/>
-    <hyperlink ref="D42" r:id="rId105" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{B2E74305-3C5D-4B0B-818B-27FAAC58B440}"/>
-    <hyperlink ref="E42" r:id="rId106" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{E7436D3F-7893-46F5-8308-AD97DF7E1D8E}"/>
-    <hyperlink ref="F42" r:id="rId107" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{DA51E0BE-0B3D-4E77-A89F-24DA72826FB1}"/>
-    <hyperlink ref="G42" r:id="rId108" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{4CEF58CA-2BB9-4F63-8F2A-7ABA6D569993}"/>
-    <hyperlink ref="H42" r:id="rId109" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{580E407B-84A1-4CAD-901D-13CBE449B53A}"/>
-    <hyperlink ref="I42" r:id="rId110" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{A2DFCCBB-6E8E-477A-BA15-3C8604680219}"/>
-    <hyperlink ref="J42" r:id="rId111" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{C7955F91-2B43-49FD-BB44-5798E681D424}"/>
-    <hyperlink ref="K42" r:id="rId112" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{2AC73BB8-82B9-4F68-A3C4-603273A4DC60}"/>
-    <hyperlink ref="L42" r:id="rId113" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{7DB34EB1-0DD1-4A21-9B79-A7B78AFDD897}"/>
-    <hyperlink ref="M42" r:id="rId114" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{0272ABD6-6A8F-4612-AB49-AC1C88B34C6C}"/>
-    <hyperlink ref="N42" r:id="rId115" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{44DB6289-C8FE-4F0A-AFCD-136F7F28954D}"/>
-    <hyperlink ref="O42" r:id="rId116" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{E4E05D82-870C-4A52-B754-4B94FF0F8B44}"/>
-    <hyperlink ref="P42" r:id="rId117" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{654B9A56-108D-43E2-9C3C-92E7D1B001C0}"/>
-    <hyperlink ref="Q42" r:id="rId118" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{9B81BB59-E14A-4633-BD0C-5B4FD3424294}"/>
-    <hyperlink ref="R42" r:id="rId119" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{14276FB4-D3CA-4946-BE52-0AD00466B5C7}"/>
-    <hyperlink ref="B43" r:id="rId120" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{CACB26C5-FB86-4D9A-86A8-C2D89CB3C807}"/>
-    <hyperlink ref="C43" r:id="rId121" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{AC5A37C8-4FD3-44AA-ABC6-529019CED554}"/>
-    <hyperlink ref="D43" r:id="rId122" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{DD0968CB-5AF1-4D20-8DC8-835DDCF1A4E6}"/>
-    <hyperlink ref="E43" r:id="rId123" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{EAAD7DFF-0280-412D-B16F-AC09C0598037}"/>
-    <hyperlink ref="F43" r:id="rId124" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{9D4E3905-2524-46E3-A6C6-56E174A5100D}"/>
-    <hyperlink ref="G43" r:id="rId125" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{51B1F2CC-F865-4CAD-AC32-3193AE0BAFEC}"/>
-    <hyperlink ref="H43" r:id="rId126" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{7488732C-DFFC-42A8-B5D4-D9A15671C399}"/>
-    <hyperlink ref="I43" r:id="rId127" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{07D97004-E012-44FA-BAEB-04A2D2BA707D}"/>
-    <hyperlink ref="J43" r:id="rId128" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{5B18762D-06D1-4DEA-AFDF-5540D157A456}"/>
-    <hyperlink ref="K43" r:id="rId129" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{EBC88BC2-958C-4814-8503-3595BF87506D}"/>
-    <hyperlink ref="L43" r:id="rId130" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{87A59839-6FDE-4BBB-A6B6-CEE164CDDE43}"/>
-    <hyperlink ref="M43" r:id="rId131" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{21A0788D-B62B-45C1-A9B4-5D0C5DD92FFB}"/>
-    <hyperlink ref="N43" r:id="rId132" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{D5FF0785-BA1B-4DED-9871-1C69C5B74ED2}"/>
-    <hyperlink ref="O43" r:id="rId133" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{66165B24-1641-4D48-B846-31B1D0A231E4}"/>
-    <hyperlink ref="P43" r:id="rId134" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{6CA8A164-BBDC-4C60-9C18-B4EFA20DFEAD}"/>
-    <hyperlink ref="Q43" r:id="rId135" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{E8A1FB97-F542-40A6-9A46-73F78C5AD7BF}"/>
-    <hyperlink ref="R43" r:id="rId136" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{D95F8762-F1D7-46E4-8C0A-E21AD0091CCC}"/>
-    <hyperlink ref="B44" r:id="rId137" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{718DB554-D105-4721-BA86-B36AF088A85C}"/>
-    <hyperlink ref="C44" r:id="rId138" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{8D0DCEC2-DBEC-416A-8A38-56FE3AB03647}"/>
-    <hyperlink ref="D44" r:id="rId139" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{0B7FD1F5-7D69-40E1-AD20-BE65C7910DB7}"/>
-    <hyperlink ref="E44" r:id="rId140" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{97FBD318-E09D-4CB6-887C-304F6ECCAB1E}"/>
-    <hyperlink ref="F44" r:id="rId141" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{96F9501F-B297-44CC-9199-30776635A744}"/>
-    <hyperlink ref="G44" r:id="rId142" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{03D75088-035A-49B9-94AF-A9AA29D60DEA}"/>
-    <hyperlink ref="H44" r:id="rId143" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{D03EF829-66DE-4ABB-B23E-AD7E2A6741BB}"/>
-    <hyperlink ref="I44" r:id="rId144" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{9E1A73FC-8B7C-4298-8452-F32C1EF691FD}"/>
-    <hyperlink ref="J44" r:id="rId145" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{81C80CE4-2278-4329-99FD-6D4713EBACFF}"/>
-    <hyperlink ref="K44" r:id="rId146" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{10836135-89D0-40F2-97E1-DD5C357E9DF7}"/>
-    <hyperlink ref="L44" r:id="rId147" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{FB1DD74C-25EA-42AA-97DA-FE198A5251CC}"/>
-    <hyperlink ref="M44" r:id="rId148" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{2036F412-EADD-4ADA-A077-B25149127A91}"/>
-    <hyperlink ref="N44" r:id="rId149" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{CAB3BE51-E51D-4D45-91CB-F21096191D65}"/>
-    <hyperlink ref="O44" r:id="rId150" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{736694CE-0FD9-40E4-B656-681D172AE4D2}"/>
-    <hyperlink ref="P44" r:id="rId151" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{B14B73E5-8FC8-4739-A2E3-380A002E29B1}"/>
-    <hyperlink ref="Q44" r:id="rId152" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{E36371F0-4A31-42D1-A25C-46A711411FF1}"/>
-    <hyperlink ref="R44" r:id="rId153" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{B73785C8-1C01-4895-BF78-E405105660C8}"/>
-    <hyperlink ref="B45" r:id="rId154" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{C6EDCD32-CEE3-4A23-8F5A-FBD3CD0BD2D0}"/>
-    <hyperlink ref="C45" r:id="rId155" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{6609B237-FD74-4EDD-A015-4A95E9586A62}"/>
-    <hyperlink ref="D45" r:id="rId156" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{C4AAAE85-B2EF-4A94-9919-C6AD9EBB4394}"/>
-    <hyperlink ref="E45" r:id="rId157" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{AC2D0BED-4094-4FBC-BE4F-25085705D85A}"/>
-    <hyperlink ref="F45" r:id="rId158" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{C4899C3A-E14B-4730-AD1B-E637B20518C7}"/>
-    <hyperlink ref="G45" r:id="rId159" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{0D07E0C0-9671-479D-BC3F-77194795F575}"/>
-    <hyperlink ref="H45" r:id="rId160" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{C47F0A1F-B0C6-42D6-A9F3-47F1ED232525}"/>
-    <hyperlink ref="I45" r:id="rId161" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{D5D683F0-EB36-4798-A8CD-1425A3F5CD9F}"/>
-    <hyperlink ref="J45" r:id="rId162" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{E9F91504-1171-4833-AF04-DFE268502F12}"/>
-    <hyperlink ref="K45" r:id="rId163" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{87897CD4-C642-44AD-A471-51DB5F2DB905}"/>
-    <hyperlink ref="L45" r:id="rId164" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{08390EFF-4BF8-48EF-9595-28E6E1412853}"/>
-    <hyperlink ref="M45" r:id="rId165" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{F343001F-97F9-4D2E-A8DF-D0FEA25A7F7B}"/>
-    <hyperlink ref="N45" r:id="rId166" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{EEB56EBC-AA1D-4F11-AB81-83E5F5C2543C}"/>
-    <hyperlink ref="O45" r:id="rId167" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{856A4BC6-B951-4E57-BC97-37CDCFCA1299}"/>
-    <hyperlink ref="P45" r:id="rId168" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{D6D70193-F7F9-4795-8395-5A3668C96290}"/>
-    <hyperlink ref="Q45" r:id="rId169" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{DDAC0C0F-6C2A-4E76-8233-A0AD442D124D}"/>
-    <hyperlink ref="R45" r:id="rId170" display="https://cmegroup-tools.quikstrike.net/User/QuikStrikeView.aspx?viewitemid=FXOTC&amp;pid=350&amp;insid=98070468&amp;qsid=1e0c5840-7311-476a-9149-7e13cf8d1d96" xr:uid="{A6CF7506-475C-4833-A45A-EEDF8ABBBC63}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId171"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GUI.xlsx
+++ b/GUI.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\bolt-hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BB7E47-732B-47A3-B4AB-04A88FF203EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F431225F-0C3B-4C42-BCA6-D8B0E850BC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{ADC905B0-2814-4D73-BDC4-7F5ECB533AD8}"/>
+    <workbookView xWindow="51435" yWindow="0" windowWidth="16410" windowHeight="15345" xr2:uid="{ADC905B0-2814-4D73-BDC4-7F5ECB533AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="EURUSD" sheetId="3" r:id="rId1"/>
-    <sheet name="EURUSD Risks&amp;Marks" sheetId="2" r:id="rId2"/>
+    <sheet name="Marking" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -403,7 +403,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,6 +458,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -770,10 +776,10 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -861,9 +867,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>489857</xdr:colOff>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>136071</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -895,7 +901,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -931,9 +937,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>176893</xdr:colOff>
+          <xdr:colOff>180975</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>122464</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -943,7 +949,7 @@
                   <a14:compatExt spid="_x0000_s2050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE0CADC2-BA38-65ED-10CF-2AC24028AAE8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -965,7 +971,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -1035,7 +1041,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -1360,10 +1366,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8466C5D6-701B-46E3-B7B2-260B1B763E8F}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2421,10 +2428,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92474F6-EE55-428A-8373-E4A438634E03}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O64" sqref="O62:O64"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2446,18 +2454,18 @@
       <c r="A3" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
       <c r="G6" t="s">
         <v>118</v>
       </c>
@@ -2974,31 +2982,31 @@
       </c>
     </row>
     <row r="33" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
     </row>
     <row r="34" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
